--- a/Bulk Loads/1824/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1824/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 01, 2024</t>
+          <t>August 05, 2024</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="F138" s="5" t="n">
-        <v>26.9</v>
+        <v>53.8</v>
       </c>
       <c r="G138" s="6">
         <f>IF(E138&gt;1,(1.732*D138*F138)/1000,(D138*F138)/1000)</f>

--- a/Bulk Loads/1824/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1824/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -83,6 +83,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -478,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:S630"/>
   <sheetViews>
@@ -499,6 +502,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1"/>
@@ -513,7 +517,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 29, 2024</t>
+          <t>September 18, 2024</t>
         </is>
       </c>
     </row>
@@ -657,7 +661,7 @@
       </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -695,7 +699,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -726,7 +730,7 @@
         <f>IF(E11&gt;1,(1.732*D11*F11)/1000,(D11*F11)/1000)</f>
         <v/>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -746,7 +750,7 @@
       </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -768,6 +772,7 @@
       </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
+      <c r="S13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -794,6 +799,7 @@
         <f>IF(E14&gt;1,(1.732*D14*F14)/1000,(D14*F14)/1000)</f>
         <v/>
       </c>
+      <c r="S14" s="9" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -809,7 +815,7 @@
       </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -829,7 +835,7 @@
       </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -851,6 +857,7 @@
       </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
+      <c r="S17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -868,6 +875,7 @@
       </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
+      <c r="S18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -883,7 +891,7 @@
       </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
-      <c r="S19" t="inlineStr">
+      <c r="S19" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM#3</t>
         </is>
@@ -903,7 +911,7 @@
       </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -928,7 +936,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -959,6 +967,7 @@
         <f>IF(E22&gt;1,(1.732*D22*F22)/1000,(D22*F22)/1000)</f>
         <v/>
       </c>
+      <c r="S22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -976,6 +985,7 @@
       </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
+      <c r="S23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -1012,7 +1022,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S24" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER WATER-COOLED INDOOR</t>
         </is>
@@ -1048,7 +1058,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S25" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1068,7 +1078,7 @@
       </c>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
-      <c r="S26" t="inlineStr">
+      <c r="S26" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1090,6 +1100,7 @@
       </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
+      <c r="S27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -1107,6 +1118,7 @@
       </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
+      <c r="S28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -1133,6 +1145,7 @@
         <f>IF(E29&gt;1,(1.732*D29*F29)/1000,(D29*F29)/1000)</f>
         <v/>
       </c>
+      <c r="S29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -1153,7 +1166,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="S30" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1184,6 +1197,7 @@
         <f>IF(E31&gt;1,(1.732*D31*F31)/1000,(D31*F31)/1000)</f>
         <v/>
       </c>
+      <c r="S31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -1220,7 +1234,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER WATER-COOLED INDOOR</t>
         </is>
@@ -1242,6 +1256,7 @@
       </c>
       <c r="F33" s="7" t="n"/>
       <c r="G33" s="8" t="n"/>
+      <c r="S33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -1273,7 +1288,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="S34" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1293,7 +1308,7 @@
       </c>
       <c r="F35" s="7" t="n"/>
       <c r="G35" s="8" t="n"/>
-      <c r="S35" t="inlineStr">
+      <c r="S35" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1313,7 +1328,7 @@
       </c>
       <c r="F36" s="7" t="n"/>
       <c r="G36" s="8" t="n"/>
-      <c r="S36" t="inlineStr">
+      <c r="S36" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1335,6 +1350,7 @@
       </c>
       <c r="F37" s="7" t="n"/>
       <c r="G37" s="8" t="n"/>
+      <c r="S37" s="9" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -1352,6 +1368,7 @@
       </c>
       <c r="F38" s="7" t="n"/>
       <c r="G38" s="8" t="n"/>
+      <c r="S38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -1367,7 +1384,7 @@
       </c>
       <c r="F39" s="7" t="n"/>
       <c r="G39" s="8" t="n"/>
-      <c r="S39" t="inlineStr">
+      <c r="S39" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -1392,7 +1409,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="S40" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1423,6 +1440,7 @@
         <f>IF(E41&gt;1,(1.732*D41*F41)/1000,(D41*F41)/1000)</f>
         <v/>
       </c>
+      <c r="S41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -1459,7 +1477,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="S42" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER WATER-COOLED INDOOR</t>
         </is>
@@ -1481,6 +1499,7 @@
       </c>
       <c r="F43" s="7" t="n"/>
       <c r="G43" s="8" t="n"/>
+      <c r="S43" s="9" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -1512,7 +1531,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="S44" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1532,7 +1551,7 @@
       </c>
       <c r="F45" s="7" t="n"/>
       <c r="G45" s="8" t="n"/>
-      <c r="S45" t="inlineStr">
+      <c r="S45" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1552,7 +1571,7 @@
       </c>
       <c r="F46" s="7" t="n"/>
       <c r="G46" s="8" t="n"/>
-      <c r="S46" t="inlineStr">
+      <c r="S46" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1574,6 +1593,7 @@
       </c>
       <c r="F47" s="7" t="n"/>
       <c r="G47" s="8" t="n"/>
+      <c r="S47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -1591,6 +1611,7 @@
       </c>
       <c r="F48" s="7" t="n"/>
       <c r="G48" s="8" t="n"/>
+      <c r="S48" s="9" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -1606,7 +1627,7 @@
       </c>
       <c r="F49" s="7" t="n"/>
       <c r="G49" s="8" t="n"/>
-      <c r="S49" t="inlineStr">
+      <c r="S49" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -1644,7 +1665,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="S50" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -1693,7 +1714,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="S51" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1713,7 +1734,7 @@
       </c>
       <c r="F52" s="7" t="n"/>
       <c r="G52" s="8" t="n"/>
-      <c r="S52" t="inlineStr">
+      <c r="S52" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1735,6 +1756,7 @@
       </c>
       <c r="F53" s="7" t="n"/>
       <c r="G53" s="8" t="n"/>
+      <c r="S53" s="9" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -1750,7 +1772,7 @@
       </c>
       <c r="F54" s="7" t="n"/>
       <c r="G54" s="8" t="n"/>
-      <c r="S54" t="inlineStr">
+      <c r="S54" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -1781,6 +1803,7 @@
         <f>IF(E55&gt;1,(1.732*D55*F55)/1000,(D55*F55)/1000)</f>
         <v/>
       </c>
+      <c r="S55" s="9" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
@@ -1807,6 +1830,7 @@
         <f>IF(E56&gt;1,(1.732*D56*F56)/1000,(D56*F56)/1000)</f>
         <v/>
       </c>
+      <c r="S56" s="9" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
@@ -1824,6 +1848,7 @@
       </c>
       <c r="F57" s="7" t="n"/>
       <c r="G57" s="8" t="n"/>
+      <c r="S57" s="9" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -1841,6 +1866,7 @@
       </c>
       <c r="F58" s="7" t="n"/>
       <c r="G58" s="8" t="n"/>
+      <c r="S58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -1867,6 +1893,7 @@
         <f>IF(E59&gt;1,(1.732*D59*F59)/1000,(D59*F59)/1000)</f>
         <v/>
       </c>
+      <c r="S59" s="9" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -1882,7 +1909,7 @@
       </c>
       <c r="F60" s="7" t="n"/>
       <c r="G60" s="8" t="n"/>
-      <c r="S60" t="inlineStr">
+      <c r="S60" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -1913,7 +1940,7 @@
         <f>IF(E61&gt;1,(1.732*D61*F61)/1000,(D61*F61)/1000)</f>
         <v/>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="S61" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH UNDERCOUNTER SHELVING</t>
         </is>
@@ -1933,7 +1960,7 @@
       </c>
       <c r="F62" s="7" t="n"/>
       <c r="G62" s="8" t="n"/>
-      <c r="S62" t="inlineStr">
+      <c r="S62" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION CEILING HUNG</t>
         </is>
@@ -1955,6 +1982,7 @@
       </c>
       <c r="F63" s="7" t="n"/>
       <c r="G63" s="8" t="n"/>
+      <c r="S63" s="9" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -1981,7 +2009,7 @@
         <f>IF(E64&gt;1,(1.732*D64*F64)/1000,(D64*F64)/1000)</f>
         <v/>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="S64" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH UNDERCOUNTER SHELVING</t>
         </is>
@@ -2001,7 +2029,7 @@
       </c>
       <c r="F65" s="7" t="n"/>
       <c r="G65" s="8" t="n"/>
-      <c r="S65" t="inlineStr">
+      <c r="S65" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION CEILING HUNG</t>
         </is>
@@ -2023,6 +2051,7 @@
       </c>
       <c r="F66" s="7" t="n"/>
       <c r="G66" s="8" t="n"/>
+      <c r="S66" s="9" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
@@ -2040,6 +2069,7 @@
       </c>
       <c r="F67" s="7" t="n"/>
       <c r="G67" s="8" t="n"/>
+      <c r="S67" s="9" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="inlineStr">
@@ -2059,6 +2089,7 @@
       </c>
       <c r="F68" s="7" t="n"/>
       <c r="G68" s="8" t="n"/>
+      <c r="S68" s="9" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
@@ -2117,7 +2148,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="S70" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -2137,7 +2168,7 @@
       </c>
       <c r="F71" s="7" t="n"/>
       <c r="G71" s="8" t="n"/>
-      <c r="S71" t="inlineStr">
+      <c r="S71" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2157,7 +2188,7 @@
       </c>
       <c r="F72" s="7" t="n"/>
       <c r="G72" s="8" t="n"/>
-      <c r="S72" t="inlineStr">
+      <c r="S72" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -2195,7 +2226,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="S73" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2217,6 +2248,7 @@
       </c>
       <c r="F74" s="7" t="n"/>
       <c r="G74" s="8" t="n"/>
+      <c r="S74" s="9" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="n">
@@ -2232,7 +2264,7 @@
       </c>
       <c r="F75" s="7" t="n"/>
       <c r="G75" s="8" t="n"/>
-      <c r="S75" t="inlineStr">
+      <c r="S75" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -2252,7 +2284,7 @@
       </c>
       <c r="F76" s="7" t="n"/>
       <c r="G76" s="8" t="n"/>
-      <c r="S76" t="inlineStr">
+      <c r="S76" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2285,7 +2317,7 @@
       <c r="J77" t="n">
         <v>50</v>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="S77" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -2307,6 +2339,7 @@
       </c>
       <c r="F78" s="7" t="n"/>
       <c r="G78" s="8" t="n"/>
+      <c r="S78" s="9" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="n">
@@ -2324,6 +2357,7 @@
       </c>
       <c r="F79" s="7" t="n"/>
       <c r="G79" s="8" t="n"/>
+      <c r="S79" s="9" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="5" t="n">
@@ -2344,7 +2378,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="S80" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2364,7 +2398,7 @@
       </c>
       <c r="F81" s="7" t="n"/>
       <c r="G81" s="8" t="n"/>
-      <c r="S81" t="inlineStr">
+      <c r="S81" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2405,6 +2439,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S82" s="9" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="n">
@@ -2438,6 +2473,7 @@
           <t>2"</t>
         </is>
       </c>
+      <c r="S83" s="9" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="5" t="inlineStr">
@@ -2457,6 +2493,7 @@
       </c>
       <c r="F84" s="7" t="n"/>
       <c r="G84" s="8" t="n"/>
+      <c r="S84" s="9" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
@@ -2508,7 +2545,7 @@
         <f>IF(E86&gt;1,(1.732*D86*F86)/1000,(D86*F86)/1000)</f>
         <v/>
       </c>
-      <c r="S86" t="inlineStr">
+      <c r="S86" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -2539,7 +2576,7 @@
         <f>IF(E87&gt;1,(1.732*D87*F87)/1000,(D87*F87)/1000)</f>
         <v/>
       </c>
-      <c r="S87" t="inlineStr">
+      <c r="S87" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2559,7 +2596,7 @@
       </c>
       <c r="F88" s="7" t="n"/>
       <c r="G88" s="8" t="n"/>
-      <c r="S88" t="inlineStr">
+      <c r="S88" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -2590,7 +2627,7 @@
         <f>IF(E89&gt;1,(1.732*D89*F89)/1000,(D89*F89)/1000)</f>
         <v/>
       </c>
-      <c r="S89" t="inlineStr">
+      <c r="S89" s="9" t="inlineStr">
         <is>
           <t>BY OWNER</t>
         </is>
@@ -2612,6 +2649,7 @@
       </c>
       <c r="F90" s="7" t="n"/>
       <c r="G90" s="8" t="n"/>
+      <c r="S90" s="9" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="5" t="n">
@@ -2627,7 +2665,7 @@
       </c>
       <c r="F91" s="7" t="n"/>
       <c r="G91" s="8" t="n"/>
-      <c r="S91" t="inlineStr">
+      <c r="S91" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2649,6 +2687,7 @@
       </c>
       <c r="F92" s="7" t="n"/>
       <c r="G92" s="8" t="n"/>
+      <c r="S92" s="9" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="5" t="n">
@@ -2666,6 +2705,7 @@
       </c>
       <c r="F93" s="7" t="n"/>
       <c r="G93" s="8" t="n"/>
+      <c r="S93" s="9" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="5" t="n">
@@ -2683,6 +2723,7 @@
       </c>
       <c r="F94" s="7" t="n"/>
       <c r="G94" s="8" t="n"/>
+      <c r="S94" s="9" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="5" t="n">
@@ -2700,6 +2741,7 @@
       </c>
       <c r="F95" s="7" t="n"/>
       <c r="G95" s="8" t="n"/>
+      <c r="S95" s="9" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
@@ -2756,7 +2798,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S97" t="inlineStr">
+      <c r="S97" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -2778,6 +2820,7 @@
       </c>
       <c r="F98" s="7" t="n"/>
       <c r="G98" s="8" t="n"/>
+      <c r="S98" s="9" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="5" t="n">
@@ -2798,7 +2841,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S99" t="inlineStr">
+      <c r="S99" s="9" t="inlineStr">
         <is>
           <t>650LBS. WITH DIVIDER</t>
         </is>
@@ -2823,7 +2866,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S100" t="inlineStr">
+      <c r="S100" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2845,6 +2888,7 @@
       </c>
       <c r="F101" s="7" t="n"/>
       <c r="G101" s="8" t="n"/>
+      <c r="S101" s="9" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="5" t="n">
@@ -2860,7 +2904,7 @@
       </c>
       <c r="F102" s="7" t="n"/>
       <c r="G102" s="8" t="n"/>
-      <c r="S102" t="inlineStr">
+      <c r="S102" s="9" t="inlineStr">
         <is>
           <t>MOBILE 250LBS.</t>
         </is>
@@ -2882,6 +2926,7 @@
       </c>
       <c r="F103" s="7" t="n"/>
       <c r="G103" s="8" t="n"/>
+      <c r="S103" s="9" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="5" t="n">
@@ -2921,7 +2966,7 @@
       <c r="N104" t="n">
         <v>5000</v>
       </c>
-      <c r="S104" t="inlineStr">
+      <c r="S104" s="9" t="inlineStr">
         <is>
           <t>690LBS AIR-COOLED CUBELET ICE</t>
         </is>
@@ -2943,6 +2988,7 @@
       </c>
       <c r="F105" s="7" t="n"/>
       <c r="G105" s="8" t="n"/>
+      <c r="S105" s="9" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="5" t="n">
@@ -2960,6 +3006,7 @@
       </c>
       <c r="F106" s="7" t="n"/>
       <c r="G106" s="8" t="n"/>
+      <c r="S106" s="9" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="5" t="n">
@@ -2980,7 +3027,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S107" t="inlineStr">
+      <c r="S107" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #118</t>
         </is>
@@ -3000,7 +3047,7 @@
       </c>
       <c r="F108" s="7" t="n"/>
       <c r="G108" s="8" t="n"/>
-      <c r="S108" t="inlineStr">
+      <c r="S108" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -3020,7 +3067,7 @@
       </c>
       <c r="F109" s="7" t="n"/>
       <c r="G109" s="8" t="n"/>
-      <c r="S109" t="inlineStr">
+      <c r="S109" s="9" t="inlineStr">
         <is>
           <t>FIXED FOURTEEN TIER</t>
         </is>
@@ -3045,7 +3092,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S110" t="inlineStr">
+      <c r="S110" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3067,6 +3114,7 @@
       </c>
       <c r="F111" s="7" t="n"/>
       <c r="G111" s="8" t="n"/>
+      <c r="S111" s="9" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="5" t="n">
@@ -3082,7 +3130,7 @@
       </c>
       <c r="F112" s="7" t="n"/>
       <c r="G112" s="8" t="n"/>
-      <c r="S112" t="inlineStr">
+      <c r="S112" s="9" t="inlineStr">
         <is>
           <t>EXISTING TO REMAIN</t>
         </is>
@@ -3123,7 +3171,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S113" t="inlineStr">
+      <c r="S113" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER WATER-COOLED INDOOR</t>
         </is>
@@ -3159,7 +3207,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S114" t="inlineStr">
+      <c r="S114" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -3181,6 +3229,7 @@
       </c>
       <c r="F115" s="7" t="n"/>
       <c r="G115" s="8" t="n"/>
+      <c r="S115" s="9" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="5" t="n">
@@ -3198,6 +3247,7 @@
       </c>
       <c r="F116" s="7" t="n"/>
       <c r="G116" s="8" t="n"/>
+      <c r="S116" s="9" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="5" t="n">
@@ -3213,7 +3263,7 @@
       </c>
       <c r="F117" s="7" t="n"/>
       <c r="G117" s="8" t="n"/>
-      <c r="S117" t="inlineStr">
+      <c r="S117" s="9" t="inlineStr">
         <is>
           <t>FIXED FOURTEEN TIER</t>
         </is>
@@ -3233,7 +3283,7 @@
       </c>
       <c r="F118" s="7" t="n"/>
       <c r="G118" s="8" t="n"/>
-      <c r="S118" t="inlineStr">
+      <c r="S118" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -3253,6 +3303,7 @@
       </c>
       <c r="F119" s="7" t="n"/>
       <c r="G119" s="8" t="n"/>
+      <c r="S119" s="9" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="5" t="n">
@@ -3270,6 +3321,7 @@
       </c>
       <c r="F120" s="7" t="n"/>
       <c r="G120" s="8" t="n"/>
+      <c r="S120" s="9" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="5" t="inlineStr">
@@ -3289,6 +3341,7 @@
       </c>
       <c r="F121" s="7" t="n"/>
       <c r="G121" s="8" t="n"/>
+      <c r="S121" s="9" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
@@ -3347,7 +3400,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S123" t="inlineStr">
+      <c r="S123" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -3367,7 +3420,7 @@
       </c>
       <c r="F124" s="7" t="n"/>
       <c r="G124" s="8" t="n"/>
-      <c r="S124" t="inlineStr">
+      <c r="S124" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -3416,7 +3469,7 @@
           <t>(2)1-1/2"</t>
         </is>
       </c>
-      <c r="S125" t="inlineStr">
+      <c r="S125" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3436,7 +3489,7 @@
       </c>
       <c r="F126" s="7" t="n"/>
       <c r="G126" s="8" t="n"/>
-      <c r="S126" t="inlineStr">
+      <c r="S126" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -3458,6 +3511,7 @@
       </c>
       <c r="F127" s="7" t="n"/>
       <c r="G127" s="8" t="n"/>
+      <c r="S127" s="9" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="5" t="n">
@@ -3473,7 +3527,7 @@
       </c>
       <c r="F128" s="7" t="n"/>
       <c r="G128" s="8" t="n"/>
-      <c r="S128" t="inlineStr">
+      <c r="S128" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3509,7 +3563,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S129" t="inlineStr">
+      <c r="S129" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS PART OF ITEM #303</t>
         </is>
@@ -3540,7 +3594,7 @@
         <f>IF(E130&gt;1,(1.732*D130*F130)/1000,(D130*F130)/1000)</f>
         <v/>
       </c>
-      <c r="S130" t="inlineStr">
+      <c r="S130" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #312</t>
         </is>
@@ -3562,6 +3616,7 @@
       </c>
       <c r="F131" s="7" t="n"/>
       <c r="G131" s="8" t="n"/>
+      <c r="S131" s="9" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="5" t="n">
@@ -3579,6 +3634,7 @@
       </c>
       <c r="F132" s="7" t="n"/>
       <c r="G132" s="8" t="n"/>
+      <c r="S132" s="9" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="5" t="n">
@@ -3605,7 +3661,7 @@
         <f>IF(E133&gt;1,(1.732*D133*F133)/1000,(D133*F133)/1000)</f>
         <v/>
       </c>
-      <c r="S133" t="inlineStr">
+      <c r="S133" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #312</t>
         </is>
@@ -3636,7 +3692,7 @@
         <f>IF(E134&gt;1,(1.732*D134*F134)/1000,(D134*F134)/1000)</f>
         <v/>
       </c>
-      <c r="S134" t="inlineStr">
+      <c r="S134" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -3659,7 +3715,7 @@
       <c r="M135" t="n">
         <v>280000</v>
       </c>
-      <c r="S135" t="inlineStr">
+      <c r="S135" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3692,6 +3748,7 @@
       <c r="J136" t="n">
         <v>30</v>
       </c>
+      <c r="S136" s="9" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="5" t="n">
@@ -3709,6 +3766,7 @@
       </c>
       <c r="F137" s="7" t="n"/>
       <c r="G137" s="8" t="n"/>
+      <c r="S137" s="9" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="5" t="n">
@@ -3737,7 +3795,8 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(2)3/4"</t>
+          <t>(2)3/4"_x000D_
+(2)3/4"</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -3745,7 +3804,7 @@
           <t>(2)2"</t>
         </is>
       </c>
-      <c r="S138" t="inlineStr">
+      <c r="S138" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3778,7 +3837,8 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(2)3/4"</t>
+          <t>(2)3/4"_x000D_
+(2)3/4"</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -3786,7 +3846,7 @@
           <t>(2)2"</t>
         </is>
       </c>
-      <c r="S139" t="inlineStr">
+      <c r="S139" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3824,7 +3884,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S140" t="inlineStr">
+      <c r="S140" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -3844,7 +3904,7 @@
       </c>
       <c r="F141" s="7" t="n"/>
       <c r="G141" s="8" t="n"/>
-      <c r="S141" t="inlineStr">
+      <c r="S141" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -3866,6 +3926,7 @@
       </c>
       <c r="F142" s="7" t="n"/>
       <c r="G142" s="8" t="n"/>
+      <c r="S142" s="9" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="5" t="n">
@@ -3883,6 +3944,7 @@
       </c>
       <c r="F143" s="7" t="n"/>
       <c r="G143" s="8" t="n"/>
+      <c r="S143" s="9" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="5" t="n">
@@ -3898,7 +3960,7 @@
       </c>
       <c r="F144" s="7" t="n"/>
       <c r="G144" s="8" t="n"/>
-      <c r="S144" t="inlineStr">
+      <c r="S144" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -3947,7 +4009,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S145" t="inlineStr">
+      <c r="S145" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3967,7 +4029,7 @@
       </c>
       <c r="F146" s="7" t="n"/>
       <c r="G146" s="8" t="n"/>
-      <c r="S146" t="inlineStr">
+      <c r="S146" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4000,6 +4062,7 @@
       <c r="J147" t="n">
         <v>15</v>
       </c>
+      <c r="S147" s="9" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="5" t="n">
@@ -4017,6 +4080,7 @@
       </c>
       <c r="F148" s="7" t="n"/>
       <c r="G148" s="8" t="n"/>
+      <c r="S148" s="9" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="5" t="n">
@@ -4043,6 +4107,7 @@
         <f>IF(E149&gt;1,(1.732*D149*F149)/1000,(D149*F149)/1000)</f>
         <v/>
       </c>
+      <c r="S149" s="9" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="5" t="n">
@@ -4058,7 +4123,7 @@
       </c>
       <c r="F150" s="7" t="n"/>
       <c r="G150" s="8" t="n"/>
-      <c r="S150" t="inlineStr">
+      <c r="S150" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4083,7 +4148,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="S151" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4105,6 +4170,7 @@
       </c>
       <c r="F152" s="7" t="n"/>
       <c r="G152" s="8" t="n"/>
+      <c r="S152" s="9" t="n"/>
     </row>
     <row r="153">
       <c r="A153" s="5" t="n">
@@ -4122,6 +4188,7 @@
       </c>
       <c r="F153" s="7" t="n"/>
       <c r="G153" s="8" t="n"/>
+      <c r="S153" s="9" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="5" t="n">
@@ -4148,6 +4215,7 @@
         <f>IF(E154&gt;1,(1.732*D154*F154)/1000,(D154*F154)/1000)</f>
         <v/>
       </c>
+      <c r="S154" s="9" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="5" t="n">
@@ -4184,7 +4252,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S155" t="inlineStr">
+      <c r="S155" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER WATER-COOLED INDOOR</t>
         </is>
@@ -4220,7 +4288,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S156" t="inlineStr">
+      <c r="S156" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -4240,7 +4308,7 @@
       </c>
       <c r="F157" s="7" t="n"/>
       <c r="G157" s="8" t="n"/>
-      <c r="S157" t="inlineStr">
+      <c r="S157" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -4264,6 +4332,7 @@
       </c>
       <c r="F158" s="7" t="n"/>
       <c r="G158" s="8" t="n"/>
+      <c r="S158" s="9" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
@@ -4309,7 +4378,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S160" t="inlineStr">
+      <c r="S160" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4329,7 +4398,7 @@
       </c>
       <c r="F161" s="7" t="n"/>
       <c r="G161" s="8" t="n"/>
-      <c r="S161" t="inlineStr">
+      <c r="S161" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #341</t>
         </is>
@@ -4362,7 +4431,7 @@
       <c r="J162" t="n">
         <v>50</v>
       </c>
-      <c r="S162" t="inlineStr">
+      <c r="S162" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -4406,7 +4475,7 @@
       <c r="P163" t="n">
         <v>3700</v>
       </c>
-      <c r="S163" t="inlineStr">
+      <c r="S163" s="9" t="inlineStr">
         <is>
           <t>180° RINSE VENTLESS</t>
         </is>
@@ -4447,6 +4516,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S164" s="9" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="5" t="n">
@@ -4462,7 +4532,7 @@
       </c>
       <c r="F165" s="7" t="n"/>
       <c r="G165" s="8" t="n"/>
-      <c r="S165" t="inlineStr">
+      <c r="S165" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4482,7 +4552,7 @@
       </c>
       <c r="F166" s="7" t="n"/>
       <c r="G166" s="8" t="n"/>
-      <c r="S166" t="inlineStr">
+      <c r="S166" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -4520,7 +4590,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S167" t="inlineStr">
+      <c r="S167" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -4542,6 +4612,7 @@
       </c>
       <c r="F168" s="7" t="n"/>
       <c r="G168" s="8" t="n"/>
+      <c r="S168" s="9" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="5" t="n">
@@ -4559,6 +4630,7 @@
       </c>
       <c r="F169" s="7" t="n"/>
       <c r="G169" s="8" t="n"/>
+      <c r="S169" s="9" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="5" t="n">
@@ -4574,7 +4646,7 @@
       </c>
       <c r="F170" s="7" t="n"/>
       <c r="G170" s="8" t="n"/>
-      <c r="S170" t="inlineStr">
+      <c r="S170" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -4623,7 +4695,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S171" t="inlineStr">
+      <c r="S171" s="9" t="inlineStr">
         <is>
           <t>WITH COVER</t>
         </is>
@@ -4656,7 +4728,7 @@
       <c r="J172" t="n">
         <v>50</v>
       </c>
-      <c r="S172" t="inlineStr">
+      <c r="S172" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -4700,7 +4772,7 @@
       <c r="P173" t="n">
         <v>6100</v>
       </c>
-      <c r="S173" t="inlineStr">
+      <c r="S173" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE VENTLESS</t>
         </is>
@@ -4722,6 +4794,7 @@
       </c>
       <c r="F174" s="7" t="n"/>
       <c r="G174" s="8" t="n"/>
+      <c r="S174" s="9" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="5" t="n">
@@ -4742,7 +4815,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S175" t="inlineStr">
+      <c r="S175" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4762,7 +4835,7 @@
       </c>
       <c r="F176" s="7" t="n"/>
       <c r="G176" s="8" t="n"/>
-      <c r="S176" t="inlineStr">
+      <c r="S176" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4782,7 +4855,7 @@
       </c>
       <c r="F177" s="7" t="n"/>
       <c r="G177" s="8" t="n"/>
-      <c r="S177" t="inlineStr">
+      <c r="S177" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -4804,6 +4877,7 @@
       </c>
       <c r="F178" s="7" t="n"/>
       <c r="G178" s="8" t="n"/>
+      <c r="S178" s="9" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="5" t="n">
@@ -4821,6 +4895,7 @@
       </c>
       <c r="F179" s="7" t="n"/>
       <c r="G179" s="8" t="n"/>
+      <c r="S179" s="9" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="5" t="n">
@@ -4854,7 +4929,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S180" t="inlineStr">
+      <c r="S180" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4874,7 +4949,7 @@
       </c>
       <c r="F181" s="7" t="n"/>
       <c r="G181" s="8" t="n"/>
-      <c r="S181" t="inlineStr">
+      <c r="S181" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4907,7 +4982,7 @@
       <c r="J182" t="n">
         <v>50</v>
       </c>
-      <c r="S182" t="inlineStr">
+      <c r="S182" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -4927,7 +5002,7 @@
       </c>
       <c r="F183" s="7" t="n"/>
       <c r="G183" s="8" t="n"/>
-      <c r="S183" t="inlineStr">
+      <c r="S183" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4949,6 +5024,7 @@
       </c>
       <c r="F184" s="7" t="n"/>
       <c r="G184" s="8" t="n"/>
+      <c r="S184" s="9" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="5" t="n">
@@ -4964,7 +5040,7 @@
       </c>
       <c r="F185" s="7" t="n"/>
       <c r="G185" s="8" t="n"/>
-      <c r="S185" t="inlineStr">
+      <c r="S185" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -4989,7 +5065,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S186" t="inlineStr">
+      <c r="S186" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5027,7 +5103,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S187" t="inlineStr">
+      <c r="S187" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -5049,6 +5125,7 @@
       </c>
       <c r="F188" s="7" t="n"/>
       <c r="G188" s="8" t="n"/>
+      <c r="S188" s="9" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="5" t="n">
@@ -5066,6 +5143,7 @@
       </c>
       <c r="F189" s="7" t="n"/>
       <c r="G189" s="8" t="n"/>
+      <c r="S189" s="9" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="5" t="n">
@@ -5081,7 +5159,7 @@
       </c>
       <c r="F190" s="7" t="n"/>
       <c r="G190" s="8" t="n"/>
-      <c r="S190" t="inlineStr">
+      <c r="S190" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -5101,7 +5179,7 @@
       </c>
       <c r="F191" s="7" t="n"/>
       <c r="G191" s="8" t="n"/>
-      <c r="S191" t="inlineStr">
+      <c r="S191" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5121,7 +5199,7 @@
       </c>
       <c r="F192" s="7" t="n"/>
       <c r="G192" s="8" t="n"/>
-      <c r="S192" t="inlineStr">
+      <c r="S192" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -5141,7 +5219,7 @@
       </c>
       <c r="F193" s="7" t="n"/>
       <c r="G193" s="8" t="n"/>
-      <c r="S193" t="inlineStr">
+      <c r="S193" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -5163,6 +5241,7 @@
       </c>
       <c r="F194" s="7" t="n"/>
       <c r="G194" s="8" t="n"/>
+      <c r="S194" s="9" t="n"/>
     </row>
     <row r="195">
       <c r="A195" s="5" t="n">
@@ -5178,7 +5257,7 @@
       </c>
       <c r="F195" s="7" t="n"/>
       <c r="G195" s="8" t="n"/>
-      <c r="S195" t="inlineStr">
+      <c r="S195" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -5200,6 +5279,7 @@
       </c>
       <c r="F196" s="7" t="n"/>
       <c r="G196" s="8" t="n"/>
+      <c r="S196" s="9" t="n"/>
     </row>
     <row r="197">
       <c r="A197" s="5" t="n">
@@ -5217,6 +5297,7 @@
       </c>
       <c r="F197" s="7" t="n"/>
       <c r="G197" s="8" t="n"/>
+      <c r="S197" s="9" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="5" t="n">
@@ -5234,6 +5315,7 @@
       </c>
       <c r="F198" s="7" t="n"/>
       <c r="G198" s="8" t="n"/>
+      <c r="S198" s="9" t="n"/>
     </row>
     <row r="199">
       <c r="A199" s="5" t="inlineStr">
@@ -5253,6 +5335,7 @@
       </c>
       <c r="F199" s="7" t="n"/>
       <c r="G199" s="8" t="n"/>
+      <c r="S199" s="9" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
@@ -5304,7 +5387,7 @@
         <f>IF(E201&gt;1,(1.732*D201*F201)/1000,(D201*F201)/1000)</f>
         <v/>
       </c>
-      <c r="S201" t="inlineStr">
+      <c r="S201" s="9" t="inlineStr">
         <is>
           <t>MOBILE GLASS DOOR</t>
         </is>
@@ -5335,7 +5418,7 @@
         <f>IF(E202&gt;1,(1.732*D202*F202)/1000,(D202*F202)/1000)</f>
         <v/>
       </c>
-      <c r="S202" t="inlineStr">
+      <c r="S202" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -5355,7 +5438,7 @@
       </c>
       <c r="F203" s="7" t="n"/>
       <c r="G203" s="8" t="n"/>
-      <c r="S203" t="inlineStr">
+      <c r="S203" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5386,7 +5469,7 @@
         <f>IF(E204&gt;1,(1.732*D204*F204)/1000,(D204*F204)/1000)</f>
         <v/>
       </c>
-      <c r="S204" t="inlineStr">
+      <c r="S204" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5408,6 +5491,7 @@
       </c>
       <c r="F205" s="7" t="n"/>
       <c r="G205" s="8" t="n"/>
+      <c r="S205" s="9" t="n"/>
     </row>
     <row r="206">
       <c r="A206" s="5" t="n">
@@ -5441,7 +5525,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S206" t="inlineStr">
+      <c r="S206" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -5461,7 +5545,7 @@
       </c>
       <c r="F207" s="7" t="n"/>
       <c r="G207" s="8" t="n"/>
-      <c r="S207" t="inlineStr">
+      <c r="S207" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -5481,7 +5565,7 @@
       </c>
       <c r="F208" s="7" t="n"/>
       <c r="G208" s="8" t="n"/>
-      <c r="S208" t="inlineStr">
+      <c r="S208" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #404</t>
         </is>
@@ -5503,6 +5587,7 @@
       </c>
       <c r="F209" s="7" t="n"/>
       <c r="G209" s="8" t="n"/>
+      <c r="S209" s="9" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="5" t="n">
@@ -5520,6 +5605,7 @@
       </c>
       <c r="F210" s="7" t="n"/>
       <c r="G210" s="8" t="n"/>
+      <c r="S210" s="9" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="5" t="n">
@@ -5551,7 +5637,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S211" t="inlineStr">
+      <c r="S211" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOOR PART OF ITEM #404</t>
         </is>
@@ -5587,6 +5673,7 @@
           <t>1/4"</t>
         </is>
       </c>
+      <c r="S212" s="9" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="5" t="n">
@@ -5618,6 +5705,7 @@
           <t>3/8"</t>
         </is>
       </c>
+      <c r="S213" s="9" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="5" t="n">
@@ -5649,7 +5737,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S214" t="inlineStr">
+      <c r="S214" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #404</t>
         </is>
@@ -5671,6 +5759,7 @@
       </c>
       <c r="F215" s="7" t="n"/>
       <c r="G215" s="8" t="n"/>
+      <c r="S215" s="9" t="n"/>
     </row>
     <row r="216">
       <c r="A216" s="5" t="n">
@@ -5707,7 +5796,7 @@
           <t>5/8"</t>
         </is>
       </c>
-      <c r="S216" t="inlineStr">
+      <c r="S216" s="9" t="inlineStr">
         <is>
           <t>AUTOMATIC</t>
         </is>
@@ -5738,7 +5827,7 @@
         <f>IF(E217&gt;1,(1.732*D217*F217)/1000,(D217*F217)/1000)</f>
         <v/>
       </c>
-      <c r="S217" t="inlineStr">
+      <c r="S217" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -5769,7 +5858,7 @@
         <f>IF(E218&gt;1,(1.732*D218*F218)/1000,(D218*F218)/1000)</f>
         <v/>
       </c>
-      <c r="S218" t="inlineStr">
+      <c r="S218" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -5791,6 +5880,7 @@
       </c>
       <c r="F219" s="7" t="n"/>
       <c r="G219" s="8" t="n"/>
+      <c r="S219" s="9" t="n"/>
     </row>
     <row r="220">
       <c r="A220" s="5" t="n">
@@ -5808,6 +5898,7 @@
       </c>
       <c r="F220" s="7" t="n"/>
       <c r="G220" s="8" t="n"/>
+      <c r="S220" s="9" t="n"/>
     </row>
     <row r="221">
       <c r="A221" s="5" t="n">
@@ -5825,6 +5916,7 @@
       </c>
       <c r="F221" s="7" t="n"/>
       <c r="G221" s="8" t="n"/>
+      <c r="S221" s="9" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="5" t="n">
@@ -5845,7 +5937,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S222" t="inlineStr">
+      <c r="S222" s="9" t="inlineStr">
         <is>
           <t>1818LBS</t>
         </is>
@@ -5889,7 +5981,7 @@
       <c r="N223" t="n">
         <v>5000</v>
       </c>
-      <c r="S223" t="inlineStr">
+      <c r="S223" s="9" t="inlineStr">
         <is>
           <t>690LBS AIR-COOLED CUBELET ICE</t>
         </is>
@@ -5930,7 +6022,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S224" t="inlineStr">
+      <c r="S224" s="9" t="inlineStr">
         <is>
           <t>380LBS AIR-COOLED CUBE ICE</t>
         </is>
@@ -5952,6 +6044,7 @@
       </c>
       <c r="F225" s="7" t="n"/>
       <c r="G225" s="8" t="n"/>
+      <c r="S225" s="9" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="5" t="n">
@@ -5972,7 +6065,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S226" t="inlineStr">
+      <c r="S226" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5997,7 +6090,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S227" t="inlineStr">
+      <c r="S227" s="9" t="inlineStr">
         <is>
           <t>1818LBS</t>
         </is>
@@ -6041,7 +6134,7 @@
       <c r="N228" t="n">
         <v>5000</v>
       </c>
-      <c r="S228" t="inlineStr">
+      <c r="S228" s="9" t="inlineStr">
         <is>
           <t>690LBS AIR-COOLED CUBELET ICE</t>
         </is>
@@ -6063,6 +6156,7 @@
       </c>
       <c r="F229" s="7" t="n"/>
       <c r="G229" s="8" t="n"/>
+      <c r="S229" s="9" t="n"/>
     </row>
     <row r="230">
       <c r="A230" s="5" t="n">
@@ -6080,6 +6174,7 @@
       </c>
       <c r="F230" s="7" t="n"/>
       <c r="G230" s="8" t="n"/>
+      <c r="S230" s="9" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="5" t="n">
@@ -6116,7 +6211,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S231" t="inlineStr">
+      <c r="S231" s="9" t="inlineStr">
         <is>
           <t>380LBS AIR-COOLED CUBE ICE</t>
         </is>
@@ -6141,7 +6236,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S232" t="inlineStr">
+      <c r="S232" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #423</t>
         </is>
@@ -6166,7 +6261,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S233" t="inlineStr">
+      <c r="S233" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #428</t>
         </is>
@@ -6191,7 +6286,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S234" t="inlineStr">
+      <c r="S234" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #424</t>
         </is>
@@ -6213,6 +6308,7 @@
       </c>
       <c r="F235" s="7" t="n"/>
       <c r="G235" s="8" t="n"/>
+      <c r="S235" s="9" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="5" t="n">
@@ -6233,7 +6329,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S236" t="inlineStr">
+      <c r="S236" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #431</t>
         </is>
@@ -6253,7 +6349,7 @@
       </c>
       <c r="F237" s="7" t="n"/>
       <c r="G237" s="8" t="n"/>
-      <c r="S237" t="inlineStr">
+      <c r="S237" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -6275,6 +6371,7 @@
       </c>
       <c r="F238" s="7" t="n"/>
       <c r="G238" s="8" t="n"/>
+      <c r="S238" s="9" t="n"/>
     </row>
     <row r="239">
       <c r="A239" s="5" t="n">
@@ -6292,6 +6389,7 @@
       </c>
       <c r="F239" s="7" t="n"/>
       <c r="G239" s="8" t="n"/>
+      <c r="S239" s="9" t="n"/>
     </row>
     <row r="240">
       <c r="A240" s="5" t="n">
@@ -6309,6 +6407,7 @@
       </c>
       <c r="F240" s="7" t="n"/>
       <c r="G240" s="8" t="n"/>
+      <c r="S240" s="9" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
@@ -6360,7 +6459,7 @@
         <f>IF(E242&gt;1,(1.732*D242*F242)/1000,(D242*F242)/1000)</f>
         <v/>
       </c>
-      <c r="S242" t="inlineStr">
+      <c r="S242" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6391,7 +6490,7 @@
         <f>IF(E243&gt;1,(1.732*D243*F243)/1000,(D243*F243)/1000)</f>
         <v/>
       </c>
-      <c r="S243" t="inlineStr">
+      <c r="S243" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6422,7 +6521,7 @@
         <f>IF(E244&gt;1,(1.732*D244*F244)/1000,(D244*F244)/1000)</f>
         <v/>
       </c>
-      <c r="S244" t="inlineStr">
+      <c r="S244" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -6458,7 +6557,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S245" t="inlineStr">
+      <c r="S245" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWER PART OF ITEM #441</t>
         </is>
@@ -6480,6 +6579,7 @@
       </c>
       <c r="F246" s="7" t="n"/>
       <c r="G246" s="8" t="n"/>
+      <c r="S246" s="9" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="5" t="n">
@@ -6495,7 +6595,7 @@
       </c>
       <c r="F247" s="7" t="n"/>
       <c r="G247" s="8" t="n"/>
-      <c r="S247" t="inlineStr">
+      <c r="S247" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #441</t>
         </is>
@@ -6526,6 +6626,7 @@
         <f>IF(E248&gt;1,(1.732*D248*F248)/1000,(D248*F248)/1000)</f>
         <v/>
       </c>
+      <c r="S248" s="9" t="n"/>
     </row>
     <row r="249">
       <c r="A249" s="5" t="n">
@@ -6557,7 +6658,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S249" t="inlineStr">
+      <c r="S249" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWER PART OF ITEM #441</t>
         </is>
@@ -6579,6 +6680,7 @@
       </c>
       <c r="F250" s="7" t="n"/>
       <c r="G250" s="8" t="n"/>
+      <c r="S250" s="9" t="n"/>
     </row>
     <row r="251">
       <c r="A251" s="5" t="n">
@@ -6596,6 +6698,7 @@
       </c>
       <c r="F251" s="7" t="n"/>
       <c r="G251" s="8" t="n"/>
+      <c r="S251" s="9" t="n"/>
     </row>
     <row r="252">
       <c r="A252" s="5" t="n">
@@ -6611,7 +6714,7 @@
       </c>
       <c r="F252" s="7" t="n"/>
       <c r="G252" s="8" t="n"/>
-      <c r="S252" t="inlineStr">
+      <c r="S252" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #441</t>
         </is>
@@ -6660,7 +6763,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S253" t="inlineStr">
+      <c r="S253" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6691,7 +6794,7 @@
         <f>IF(E254&gt;1,(1.732*D254*F254)/1000,(D254*F254)/1000)</f>
         <v/>
       </c>
-      <c r="S254" t="inlineStr">
+      <c r="S254" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -6711,7 +6814,7 @@
       </c>
       <c r="F255" s="7" t="n"/>
       <c r="G255" s="8" t="n"/>
-      <c r="S255" t="inlineStr">
+      <c r="S255" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6733,6 +6836,7 @@
       </c>
       <c r="F256" s="7" t="n"/>
       <c r="G256" s="8" t="n"/>
+      <c r="S256" s="9" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="5" t="n">
@@ -6764,7 +6868,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S257" t="inlineStr">
+      <c r="S257" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #452</t>
         </is>
@@ -6784,7 +6888,7 @@
       </c>
       <c r="F258" s="7" t="n"/>
       <c r="G258" s="8" t="n"/>
-      <c r="S258" t="inlineStr">
+      <c r="S258" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6804,7 +6908,7 @@
       </c>
       <c r="F259" s="7" t="n"/>
       <c r="G259" s="8" t="n"/>
-      <c r="S259" t="inlineStr">
+      <c r="S259" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #452</t>
         </is>
@@ -6826,6 +6930,7 @@
       </c>
       <c r="F260" s="7" t="n"/>
       <c r="G260" s="8" t="n"/>
+      <c r="S260" s="9" t="n"/>
     </row>
     <row r="261">
       <c r="A261" s="5" t="n">
@@ -6843,6 +6948,7 @@
       </c>
       <c r="F261" s="7" t="n"/>
       <c r="G261" s="8" t="n"/>
+      <c r="S261" s="9" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="5" t="n">
@@ -6876,7 +6982,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S262" t="inlineStr">
+      <c r="S262" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER PART OF ITEM #452</t>
         </is>
@@ -6932,7 +7038,7 @@
         <f>IF(E264&gt;1,(1.732*D264*F264)/1000,(D264*F264)/1000)</f>
         <v/>
       </c>
-      <c r="S264" t="inlineStr">
+      <c r="S264" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6963,7 +7069,7 @@
         <f>IF(E265&gt;1,(1.732*D265*F265)/1000,(D265*F265)/1000)</f>
         <v/>
       </c>
-      <c r="S265" t="inlineStr">
+      <c r="S265" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -6983,7 +7089,7 @@
       </c>
       <c r="F266" s="7" t="n"/>
       <c r="G266" s="8" t="n"/>
-      <c r="S266" t="inlineStr">
+      <c r="S266" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION CEILING HUNG</t>
         </is>
@@ -7016,6 +7122,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S267" s="9" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="5" t="n">
@@ -7047,7 +7154,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S268" t="inlineStr">
+      <c r="S268" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWER PART OF ITEM #462</t>
         </is>
@@ -7083,7 +7190,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S269" t="inlineStr">
+      <c r="S269" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS PART OF ITEM #462</t>
         </is>
@@ -7103,6 +7210,7 @@
       </c>
       <c r="F270" s="7" t="n"/>
       <c r="G270" s="8" t="n"/>
+      <c r="S270" s="9" t="n"/>
     </row>
     <row r="271">
       <c r="A271" s="5" t="n">
@@ -7120,6 +7228,7 @@
       </c>
       <c r="F271" s="7" t="n"/>
       <c r="G271" s="8" t="n"/>
+      <c r="S271" s="9" t="n"/>
     </row>
     <row r="272">
       <c r="A272" s="5" t="n">
@@ -7137,6 +7246,7 @@
       </c>
       <c r="F272" s="7" t="n"/>
       <c r="G272" s="8" t="n"/>
+      <c r="S272" s="9" t="n"/>
     </row>
     <row r="273">
       <c r="A273" s="5" t="n">
@@ -7155,7 +7265,7 @@
       <c r="M273" t="n">
         <v>110000</v>
       </c>
-      <c r="S273" t="inlineStr">
+      <c r="S273" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7186,7 +7296,7 @@
         <f>IF(E274&gt;1,(1.732*D274*F274)/1000,(D274*F274)/1000)</f>
         <v/>
       </c>
-      <c r="S274" t="inlineStr">
+      <c r="S274" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -7217,7 +7327,7 @@
         <f>IF(E275&gt;1,(1.732*D275*F275)/1000,(D275*F275)/1000)</f>
         <v/>
       </c>
-      <c r="S275" t="inlineStr">
+      <c r="S275" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -7253,7 +7363,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S276" t="inlineStr">
+      <c r="S276" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS DOOR AND NSF7 RAIL PART OF ITEM #462</t>
         </is>
@@ -7275,6 +7385,7 @@
       </c>
       <c r="F277" s="7" t="n"/>
       <c r="G277" s="8" t="n"/>
+      <c r="S277" s="9" t="n"/>
     </row>
     <row r="278">
       <c r="A278" s="5" t="n">
@@ -7290,7 +7401,7 @@
       </c>
       <c r="F278" s="7" t="n"/>
       <c r="G278" s="8" t="n"/>
-      <c r="S278" t="inlineStr">
+      <c r="S278" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7310,7 +7421,7 @@
       </c>
       <c r="F279" s="7" t="n"/>
       <c r="G279" s="8" t="n"/>
-      <c r="S279" t="inlineStr">
+      <c r="S279" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #462</t>
         </is>
@@ -7348,7 +7459,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S280" t="inlineStr">
+      <c r="S280" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER PART OF ITEM #462</t>
         </is>
@@ -7370,6 +7481,7 @@
       </c>
       <c r="F281" s="7" t="n"/>
       <c r="G281" s="8" t="n"/>
+      <c r="S281" s="9" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="5" t="n">
@@ -7387,6 +7499,7 @@
       </c>
       <c r="F282" s="7" t="n"/>
       <c r="G282" s="8" t="n"/>
+      <c r="S282" s="9" t="n"/>
     </row>
     <row r="283">
       <c r="A283" s="5" t="n">
@@ -7418,7 +7531,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S283" t="inlineStr">
+      <c r="S283" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM #462</t>
         </is>
@@ -7449,7 +7562,7 @@
         <f>IF(E284&gt;1,(1.732*D284*F284)/1000,(D284*F284)/1000)</f>
         <v/>
       </c>
-      <c r="S284" t="inlineStr">
+      <c r="S284" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -7498,7 +7611,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S285" t="inlineStr">
+      <c r="S285" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7529,7 +7642,7 @@
         <f>IF(E286&gt;1,(1.732*D286*F286)/1000,(D286*F286)/1000)</f>
         <v/>
       </c>
-      <c r="S286" t="inlineStr">
+      <c r="S286" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -7560,6 +7673,7 @@
         <f>IF(E287&gt;1,(1.732*D287*F287)/1000,(D287*F287)/1000)</f>
         <v/>
       </c>
+      <c r="S287" s="9" t="n"/>
     </row>
     <row r="288">
       <c r="A288" s="5" t="n">
@@ -7575,7 +7689,7 @@
       </c>
       <c r="F288" s="7" t="n"/>
       <c r="G288" s="8" t="n"/>
-      <c r="S288" t="inlineStr">
+      <c r="S288" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION CEILING HUNG</t>
         </is>
@@ -7611,7 +7725,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S289" t="inlineStr">
+      <c r="S289" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #483</t>
         </is>
@@ -7647,7 +7761,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S290" t="inlineStr">
+      <c r="S290" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWER PART OF ITEM #483</t>
         </is>
@@ -7678,6 +7792,7 @@
         <f>IF(E291&gt;1,(1.732*D291*F291)/1000,(D291*F291)/1000)</f>
         <v/>
       </c>
+      <c r="S291" s="9" t="n"/>
     </row>
     <row r="292">
       <c r="A292" s="5" t="n">
@@ -7695,6 +7810,7 @@
       </c>
       <c r="F292" s="7" t="n"/>
       <c r="G292" s="8" t="n"/>
+      <c r="S292" s="9" t="n"/>
     </row>
     <row r="293">
       <c r="A293" s="5" t="n">
@@ -7721,7 +7837,7 @@
         <f>IF(E293&gt;1,(1.732*D293*F293)/1000,(D293*F293)/1000)</f>
         <v/>
       </c>
-      <c r="S293" t="inlineStr">
+      <c r="S293" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -7752,7 +7868,7 @@
         <f>IF(E294&gt;1,(1.732*D294*F294)/1000,(D294*F294)/1000)</f>
         <v/>
       </c>
-      <c r="S294" t="inlineStr">
+      <c r="S294" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -7783,7 +7899,7 @@
         <f>IF(E295&gt;1,(1.732*D295*F295)/1000,(D295*F295)/1000)</f>
         <v/>
       </c>
-      <c r="S295" t="inlineStr">
+      <c r="S295" s="9" t="inlineStr">
         <is>
           <t>FOR ITEMS #472 #492</t>
         </is>
@@ -7814,7 +7930,7 @@
         <f>IF(E296&gt;1,(1.732*D296*F296)/1000,(D296*F296)/1000)</f>
         <v/>
       </c>
-      <c r="S296" t="inlineStr">
+      <c r="S296" s="9" t="inlineStr">
         <is>
           <t>FOR ITEMS #472 #492</t>
         </is>
@@ -7836,6 +7952,7 @@
       </c>
       <c r="F297" s="7" t="n"/>
       <c r="G297" s="8" t="n"/>
+      <c r="S297" s="9" t="n"/>
     </row>
     <row r="298">
       <c r="A298" s="5" t="n">
@@ -7851,6 +7968,7 @@
       </c>
       <c r="F298" s="7" t="n"/>
       <c r="G298" s="8" t="n"/>
+      <c r="S298" s="9" t="n"/>
     </row>
     <row r="299">
       <c r="A299" s="5" t="n">
@@ -7869,7 +7987,7 @@
       <c r="M299" t="n">
         <v>110000</v>
       </c>
-      <c r="S299" t="inlineStr">
+      <c r="S299" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7889,6 +8007,7 @@
       </c>
       <c r="F300" s="7" t="n"/>
       <c r="G300" s="8" t="n"/>
+      <c r="S300" s="9" t="n"/>
     </row>
     <row r="301">
       <c r="A301" s="5" t="n">
@@ -7906,6 +8025,7 @@
       </c>
       <c r="F301" s="7" t="n"/>
       <c r="G301" s="8" t="n"/>
+      <c r="S301" s="9" t="n"/>
     </row>
     <row r="302">
       <c r="A302" s="5" t="n">
@@ -7923,6 +8043,7 @@
       </c>
       <c r="F302" s="7" t="n"/>
       <c r="G302" s="8" t="n"/>
+      <c r="S302" s="9" t="n"/>
     </row>
     <row r="303">
       <c r="A303" s="5" t="n">
@@ -7952,7 +8073,7 @@
       <c r="M303" t="n">
         <v>240000</v>
       </c>
-      <c r="S303" t="inlineStr">
+      <c r="S303" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7983,6 +8104,7 @@
         <f>IF(E304&gt;1,(1.732*D304*F304)/1000,(D304*F304)/1000)</f>
         <v/>
       </c>
+      <c r="S304" s="9" t="n"/>
     </row>
     <row r="305">
       <c r="A305" s="5" t="n">
@@ -8009,7 +8131,7 @@
         <f>IF(E305&gt;1,(1.732*D305*F305)/1000,(D305*F305)/1000)</f>
         <v/>
       </c>
-      <c r="S305" t="inlineStr">
+      <c r="S305" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8045,7 +8167,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S306" t="inlineStr">
+      <c r="S306" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWER PART OF ITEM #503</t>
         </is>
@@ -8069,6 +8191,7 @@
       </c>
       <c r="F307" s="7" t="n"/>
       <c r="G307" s="8" t="n"/>
+      <c r="S307" s="9" t="n"/>
     </row>
     <row r="308">
       <c r="A308" s="3" t="inlineStr">
@@ -8138,7 +8261,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S309" t="inlineStr">
+      <c r="S309" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8169,7 +8292,7 @@
         <f>IF(E310&gt;1,(1.732*D310*F310)/1000,(D310*F310)/1000)</f>
         <v/>
       </c>
-      <c r="S310" t="inlineStr">
+      <c r="S310" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -8189,7 +8312,7 @@
       </c>
       <c r="F311" s="7" t="n"/>
       <c r="G311" s="8" t="n"/>
-      <c r="S311" t="inlineStr">
+      <c r="S311" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION CEILING HUNG</t>
         </is>
@@ -8225,7 +8348,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S312" t="inlineStr">
+      <c r="S312" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #601</t>
         </is>
@@ -8256,6 +8379,7 @@
         <f>IF(E313&gt;1,(1.732*D313*F313)/1000,(D313*F313)/1000)</f>
         <v/>
       </c>
+      <c r="S313" s="9" t="n"/>
     </row>
     <row r="314">
       <c r="A314" s="5" t="n">
@@ -8287,7 +8411,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S314" t="inlineStr">
+      <c r="S314" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND DOOR PART OF ITEM #601</t>
         </is>
@@ -8318,7 +8442,7 @@
         <f>IF(E315&gt;1,(1.732*D315*F315)/1000,(D315*F315)/1000)</f>
         <v/>
       </c>
-      <c r="S315" t="inlineStr">
+      <c r="S315" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -8356,7 +8480,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S316" t="inlineStr">
+      <c r="S316" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER PART OF ITEM #601</t>
         </is>
@@ -8387,6 +8511,7 @@
         <f>IF(E317&gt;1,(1.732*D317*F317)/1000,(D317*F317)/1000)</f>
         <v/>
       </c>
+      <c r="S317" s="9" t="n"/>
     </row>
     <row r="318">
       <c r="A318" s="5" t="n">
@@ -8404,6 +8529,7 @@
       </c>
       <c r="F318" s="7" t="n"/>
       <c r="G318" s="8" t="n"/>
+      <c r="S318" s="9" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="5" t="n">
@@ -8419,7 +8545,7 @@
       </c>
       <c r="F319" s="7" t="n"/>
       <c r="G319" s="8" t="n"/>
-      <c r="S319" t="inlineStr">
+      <c r="S319" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #601</t>
         </is>
@@ -8439,7 +8565,7 @@
       </c>
       <c r="F320" s="7" t="n"/>
       <c r="G320" s="8" t="n"/>
-      <c r="S320" t="inlineStr">
+      <c r="S320" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8470,7 +8596,7 @@
         <f>IF(E321&gt;1,(1.732*D321*F321)/1000,(D321*F321)/1000)</f>
         <v/>
       </c>
-      <c r="S321" t="inlineStr">
+      <c r="S321" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -8501,7 +8627,7 @@
         <f>IF(E322&gt;1,(1.732*D322*F322)/1000,(D322*F322)/1000)</f>
         <v/>
       </c>
-      <c r="S322" t="inlineStr">
+      <c r="S322" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #613</t>
         </is>
@@ -8523,6 +8649,7 @@
       </c>
       <c r="F323" s="7" t="n"/>
       <c r="G323" s="8" t="n"/>
+      <c r="S323" s="9" t="n"/>
     </row>
     <row r="324">
       <c r="A324" s="5" t="n">
@@ -8549,7 +8676,7 @@
         <f>IF(E324&gt;1,(1.732*D324*F324)/1000,(D324*F324)/1000)</f>
         <v/>
       </c>
-      <c r="S324" t="inlineStr">
+      <c r="S324" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #613</t>
         </is>
@@ -8580,7 +8707,7 @@
         <f>IF(E325&gt;1,(1.732*D325*F325)/1000,(D325*F325)/1000)</f>
         <v/>
       </c>
-      <c r="S325" t="inlineStr">
+      <c r="S325" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8624,7 +8751,7 @@
       <c r="M326" t="n">
         <v>80000</v>
       </c>
-      <c r="S326" t="inlineStr">
+      <c r="S326" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH PLATE SHELF</t>
         </is>
@@ -8646,6 +8773,7 @@
       </c>
       <c r="F327" s="7" t="n"/>
       <c r="G327" s="8" t="n"/>
+      <c r="S327" s="9" t="n"/>
     </row>
     <row r="328">
       <c r="A328" s="5" t="n">
@@ -8663,6 +8791,7 @@
       </c>
       <c r="F328" s="7" t="n"/>
       <c r="G328" s="8" t="n"/>
+      <c r="S328" s="9" t="n"/>
     </row>
     <row r="329">
       <c r="A329" s="5" t="n">
@@ -8692,7 +8821,7 @@
       <c r="M329" t="n">
         <v>240000</v>
       </c>
-      <c r="S329" t="inlineStr">
+      <c r="S329" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8725,6 +8854,7 @@
       <c r="J330" t="n">
         <v>30</v>
       </c>
+      <c r="S330" s="9" t="n"/>
     </row>
     <row r="331">
       <c r="A331" s="5" t="n">
@@ -8743,7 +8873,7 @@
       <c r="M331" t="n">
         <v>35000</v>
       </c>
-      <c r="S331" t="inlineStr">
+      <c r="S331" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -8763,6 +8893,7 @@
       </c>
       <c r="F332" s="7" t="n"/>
       <c r="G332" s="8" t="n"/>
+      <c r="S332" s="9" t="n"/>
     </row>
     <row r="333">
       <c r="A333" s="5" t="n">
@@ -8780,6 +8911,7 @@
       </c>
       <c r="F333" s="7" t="n"/>
       <c r="G333" s="8" t="n"/>
+      <c r="S333" s="9" t="n"/>
     </row>
     <row r="334">
       <c r="A334" s="5" t="n">
@@ -8798,7 +8930,7 @@
       <c r="M334" t="n">
         <v>110000</v>
       </c>
-      <c r="S334" t="inlineStr">
+      <c r="S334" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8818,6 +8950,7 @@
       </c>
       <c r="F335" s="7" t="n"/>
       <c r="G335" s="8" t="n"/>
+      <c r="S335" s="9" t="n"/>
     </row>
     <row r="336">
       <c r="A336" s="5" t="n">
@@ -8836,7 +8969,7 @@
       <c r="M336" t="n">
         <v>280000</v>
       </c>
-      <c r="S336" t="inlineStr">
+      <c r="S336" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8858,6 +8991,7 @@
       </c>
       <c r="F337" s="7" t="n"/>
       <c r="G337" s="8" t="n"/>
+      <c r="S337" s="9" t="n"/>
     </row>
     <row r="338">
       <c r="A338" s="5" t="n">
@@ -8875,6 +9009,7 @@
       </c>
       <c r="F338" s="7" t="n"/>
       <c r="G338" s="8" t="n"/>
+      <c r="S338" s="9" t="n"/>
     </row>
     <row r="339">
       <c r="A339" s="5" t="n">
@@ -8892,6 +9027,7 @@
       </c>
       <c r="F339" s="7" t="n"/>
       <c r="G339" s="8" t="n"/>
+      <c r="S339" s="9" t="n"/>
     </row>
     <row r="340">
       <c r="A340" s="5" t="n">
@@ -8920,6 +9056,7 @@
       <c r="J340" t="n">
         <v>30</v>
       </c>
+      <c r="S340" s="9" t="n"/>
     </row>
     <row r="341">
       <c r="A341" s="5" t="n">
@@ -8935,7 +9072,7 @@
       </c>
       <c r="F341" s="7" t="n"/>
       <c r="G341" s="8" t="n"/>
-      <c r="S341" t="inlineStr">
+      <c r="S341" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8969,6 +9106,7 @@
       <c r="M342" t="n">
         <v>139000</v>
       </c>
+      <c r="S342" s="9" t="n"/>
     </row>
     <row r="343">
       <c r="A343" s="5" t="inlineStr">
@@ -8988,6 +9126,7 @@
       </c>
       <c r="F343" s="7" t="n"/>
       <c r="G343" s="8" t="n"/>
+      <c r="S343" s="9" t="n"/>
     </row>
     <row r="344">
       <c r="A344" s="3" t="inlineStr">
@@ -9039,6 +9178,7 @@
         <f>IF(E345&gt;1,(1.732*D345*F345)/1000,(D345*F345)/1000)</f>
         <v/>
       </c>
+      <c r="S345" s="9" t="n"/>
     </row>
     <row r="346">
       <c r="A346" s="5" t="n">
@@ -9059,7 +9199,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S346" t="inlineStr">
+      <c r="S346" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9100,7 +9240,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S347" t="inlineStr">
+      <c r="S347" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER WATER-COOLED INDOOR</t>
         </is>
@@ -9141,7 +9281,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S348" t="inlineStr">
+      <c r="S348" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER WATER-COOLED INDOOR</t>
         </is>
@@ -9163,6 +9303,7 @@
       </c>
       <c r="F349" s="7" t="n"/>
       <c r="G349" s="8" t="n"/>
+      <c r="S349" s="9" t="n"/>
     </row>
     <row r="350">
       <c r="A350" s="5" t="n">
@@ -9194,7 +9335,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S350" t="inlineStr">
+      <c r="S350" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -9214,7 +9355,7 @@
       </c>
       <c r="F351" s="7" t="n"/>
       <c r="G351" s="8" t="n"/>
-      <c r="S351" t="inlineStr">
+      <c r="S351" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -9245,6 +9386,7 @@
         <f>IF(E352&gt;1,(1.732*D352*F352)/1000,(D352*F352)/1000)</f>
         <v/>
       </c>
+      <c r="S352" s="9" t="n"/>
     </row>
     <row r="353">
       <c r="A353" s="5" t="n">
@@ -9260,7 +9402,7 @@
       </c>
       <c r="F353" s="7" t="n"/>
       <c r="G353" s="8" t="n"/>
-      <c r="S353" t="inlineStr">
+      <c r="S353" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9282,6 +9424,7 @@
       </c>
       <c r="F354" s="7" t="n"/>
       <c r="G354" s="8" t="n"/>
+      <c r="S354" s="9" t="n"/>
     </row>
     <row r="355">
       <c r="A355" s="5" t="n">
@@ -9313,7 +9456,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S355" t="inlineStr">
+      <c r="S355" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -9333,7 +9476,7 @@
       </c>
       <c r="F356" s="7" t="n"/>
       <c r="G356" s="8" t="n"/>
-      <c r="S356" t="inlineStr">
+      <c r="S356" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -9355,6 +9498,7 @@
       </c>
       <c r="F357" s="7" t="n"/>
       <c r="G357" s="8" t="n"/>
+      <c r="S357" s="9" t="n"/>
     </row>
     <row r="358">
       <c r="A358" s="5" t="n">
@@ -9372,6 +9516,7 @@
       </c>
       <c r="F358" s="7" t="n"/>
       <c r="G358" s="8" t="n"/>
+      <c r="S358" s="9" t="n"/>
     </row>
     <row r="359">
       <c r="A359" s="5" t="inlineStr">
@@ -9391,6 +9536,7 @@
       </c>
       <c r="F359" s="7" t="n"/>
       <c r="G359" s="8" t="n"/>
+      <c r="S359" s="9" t="n"/>
     </row>
     <row r="360">
       <c r="A360" s="3" t="inlineStr">
@@ -9436,7 +9582,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S361" t="inlineStr">
+      <c r="S361" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -9466,7 +9612,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S362" t="inlineStr">
+      <c r="S362" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -9486,7 +9632,7 @@
       </c>
       <c r="F363" s="7" t="n"/>
       <c r="G363" s="8" t="n"/>
-      <c r="S363" t="inlineStr">
+      <c r="S363" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9506,7 +9652,7 @@
       </c>
       <c r="F364" s="7" t="n"/>
       <c r="G364" s="8" t="n"/>
-      <c r="S364" t="inlineStr">
+      <c r="S364" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -9530,6 +9676,7 @@
       </c>
       <c r="F365" s="7" t="n"/>
       <c r="G365" s="8" t="n"/>
+      <c r="S365" s="9" t="n"/>
     </row>
     <row r="366">
       <c r="A366" s="3" t="inlineStr">
@@ -9570,7 +9717,7 @@
       </c>
       <c r="F367" s="7" t="n"/>
       <c r="G367" s="8" t="n"/>
-      <c r="S367" t="inlineStr">
+      <c r="S367" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -9608,7 +9755,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S368" t="inlineStr">
+      <c r="S368" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -9628,7 +9775,7 @@
       </c>
       <c r="F369" s="7" t="n"/>
       <c r="G369" s="8" t="n"/>
-      <c r="S369" t="inlineStr">
+      <c r="S369" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -9648,6 +9795,7 @@
       </c>
       <c r="F370" s="7" t="n"/>
       <c r="G370" s="8" t="n"/>
+      <c r="S370" s="9" t="n"/>
     </row>
     <row r="371">
       <c r="A371" s="5" t="n">
@@ -9665,6 +9813,7 @@
       </c>
       <c r="F371" s="7" t="n"/>
       <c r="G371" s="8" t="n"/>
+      <c r="S371" s="9" t="n"/>
     </row>
     <row r="372">
       <c r="A372" s="5" t="n">
@@ -9691,7 +9840,7 @@
         <f>IF(E372&gt;1,(1.732*D372*F372)/1000,(D372*F372)/1000)</f>
         <v/>
       </c>
-      <c r="S372" t="inlineStr">
+      <c r="S372" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -9722,7 +9871,7 @@
         <f>IF(E373&gt;1,(1.732*D373*F373)/1000,(D373*F373)/1000)</f>
         <v/>
       </c>
-      <c r="S373" t="inlineStr">
+      <c r="S373" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -9760,7 +9909,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S374" t="inlineStr">
+      <c r="S374" s="9" t="inlineStr">
         <is>
           <t>WITH GLASS RINSER</t>
         </is>
@@ -9782,6 +9931,7 @@
       </c>
       <c r="F375" s="7" t="n"/>
       <c r="G375" s="8" t="n"/>
+      <c r="S375" s="9" t="n"/>
     </row>
     <row r="376">
       <c r="A376" s="5" t="n">
@@ -9799,6 +9949,7 @@
       </c>
       <c r="F376" s="7" t="n"/>
       <c r="G376" s="8" t="n"/>
+      <c r="S376" s="9" t="n"/>
     </row>
     <row r="377">
       <c r="A377" s="5" t="n">
@@ -9814,6 +9965,7 @@
       </c>
       <c r="F377" s="7" t="n"/>
       <c r="G377" s="8" t="n"/>
+      <c r="S377" s="9" t="n"/>
     </row>
     <row r="378">
       <c r="A378" s="5" t="n">
@@ -9834,6 +9986,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S378" s="9" t="n"/>
     </row>
     <row r="379">
       <c r="A379" s="5" t="n">
@@ -9849,6 +10002,7 @@
       </c>
       <c r="F379" s="7" t="n"/>
       <c r="G379" s="8" t="n"/>
+      <c r="S379" s="9" t="n"/>
     </row>
     <row r="380">
       <c r="A380" s="5" t="n">
@@ -9869,6 +10023,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S380" s="9" t="n"/>
     </row>
     <row r="381">
       <c r="A381" s="5" t="n">
@@ -9886,6 +10041,7 @@
       </c>
       <c r="F381" s="7" t="n"/>
       <c r="G381" s="8" t="n"/>
+      <c r="S381" s="9" t="n"/>
     </row>
     <row r="382">
       <c r="A382" s="5" t="n">
@@ -9930,7 +10086,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S382" t="inlineStr">
+      <c r="S382" s="9" t="inlineStr">
         <is>
           <t>180° RINSE</t>
         </is>
@@ -9950,7 +10106,7 @@
       </c>
       <c r="F383" s="7" t="n"/>
       <c r="G383" s="8" t="n"/>
-      <c r="S383" t="inlineStr">
+      <c r="S383" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -9970,7 +10126,7 @@
       </c>
       <c r="F384" s="7" t="n"/>
       <c r="G384" s="8" t="n"/>
-      <c r="S384" t="inlineStr">
+      <c r="S384" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -9992,6 +10148,7 @@
       </c>
       <c r="F385" s="7" t="n"/>
       <c r="G385" s="8" t="n"/>
+      <c r="S385" s="9" t="n"/>
     </row>
     <row r="386">
       <c r="A386" s="5" t="n">
@@ -10009,6 +10166,7 @@
       </c>
       <c r="F386" s="7" t="n"/>
       <c r="G386" s="8" t="n"/>
+      <c r="S386" s="9" t="n"/>
     </row>
     <row r="387">
       <c r="A387" s="5" t="n">
@@ -10035,7 +10193,7 @@
         <f>IF(E387&gt;1,(1.732*D387*F387)/1000,(D387*F387)/1000)</f>
         <v/>
       </c>
-      <c r="S387" t="inlineStr">
+      <c r="S387" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10066,7 +10224,7 @@
         <f>IF(E388&gt;1,(1.732*D388*F388)/1000,(D388*F388)/1000)</f>
         <v/>
       </c>
-      <c r="S388" t="inlineStr">
+      <c r="S388" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10088,6 +10246,7 @@
       </c>
       <c r="F389" s="7" t="n"/>
       <c r="G389" s="8" t="n"/>
+      <c r="S389" s="9" t="n"/>
     </row>
     <row r="390">
       <c r="A390" s="5" t="n">
@@ -10105,6 +10264,7 @@
       </c>
       <c r="F390" s="7" t="n"/>
       <c r="G390" s="8" t="n"/>
+      <c r="S390" s="9" t="n"/>
     </row>
     <row r="391">
       <c r="A391" s="5" t="inlineStr">
@@ -10124,6 +10284,7 @@
       </c>
       <c r="F391" s="7" t="n"/>
       <c r="G391" s="8" t="n"/>
+      <c r="S391" s="9" t="n"/>
     </row>
     <row r="392">
       <c r="A392" s="3" t="inlineStr">
@@ -10164,7 +10325,7 @@
       </c>
       <c r="F393" s="7" t="n"/>
       <c r="G393" s="8" t="n"/>
-      <c r="S393" t="inlineStr">
+      <c r="S393" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -10202,7 +10363,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S394" t="inlineStr">
+      <c r="S394" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -10222,7 +10383,7 @@
       </c>
       <c r="F395" s="7" t="n"/>
       <c r="G395" s="8" t="n"/>
-      <c r="S395" t="inlineStr">
+      <c r="S395" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -10271,7 +10432,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S396" t="inlineStr">
+      <c r="S396" s="9" t="inlineStr">
         <is>
           <t>180° RINSE</t>
         </is>
@@ -10293,6 +10454,7 @@
       </c>
       <c r="F397" s="7" t="n"/>
       <c r="G397" s="8" t="n"/>
+      <c r="S397" s="9" t="n"/>
     </row>
     <row r="398">
       <c r="A398" s="5" t="n">
@@ -10313,6 +10475,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S398" s="9" t="n"/>
     </row>
     <row r="399">
       <c r="A399" s="5" t="n">
@@ -10333,6 +10496,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S399" s="9" t="n"/>
     </row>
     <row r="400">
       <c r="A400" s="5" t="n">
@@ -10348,6 +10512,7 @@
       </c>
       <c r="F400" s="7" t="n"/>
       <c r="G400" s="8" t="n"/>
+      <c r="S400" s="9" t="n"/>
     </row>
     <row r="401">
       <c r="A401" s="5" t="n">
@@ -10365,6 +10530,7 @@
       </c>
       <c r="F401" s="7" t="n"/>
       <c r="G401" s="8" t="n"/>
+      <c r="S401" s="9" t="n"/>
     </row>
     <row r="402">
       <c r="A402" s="5" t="n">
@@ -10382,6 +10548,7 @@
       </c>
       <c r="F402" s="7" t="n"/>
       <c r="G402" s="8" t="n"/>
+      <c r="S402" s="9" t="n"/>
     </row>
     <row r="403">
       <c r="A403" s="5" t="n">
@@ -10402,6 +10569,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S403" s="9" t="n"/>
     </row>
     <row r="404">
       <c r="A404" s="5" t="n">
@@ -10417,6 +10585,7 @@
       </c>
       <c r="F404" s="7" t="n"/>
       <c r="G404" s="8" t="n"/>
+      <c r="S404" s="9" t="n"/>
     </row>
     <row r="405">
       <c r="A405" s="5" t="n">
@@ -10450,7 +10619,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S405" t="inlineStr">
+      <c r="S405" s="9" t="inlineStr">
         <is>
           <t>WITH GLASS RINSER</t>
         </is>
@@ -10481,7 +10650,7 @@
         <f>IF(E406&gt;1,(1.732*D406*F406)/1000,(D406*F406)/1000)</f>
         <v/>
       </c>
-      <c r="S406" t="inlineStr">
+      <c r="S406" s="9" t="inlineStr">
         <is>
           <t>WITH DRAWERS</t>
         </is>
@@ -10503,6 +10672,7 @@
       </c>
       <c r="F407" s="7" t="n"/>
       <c r="G407" s="8" t="n"/>
+      <c r="S407" s="9" t="n"/>
     </row>
     <row r="408">
       <c r="A408" s="5" t="n">
@@ -10518,7 +10688,7 @@
       </c>
       <c r="F408" s="7" t="n"/>
       <c r="G408" s="8" t="n"/>
-      <c r="S408" t="inlineStr">
+      <c r="S408" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10538,6 +10708,7 @@
       </c>
       <c r="F409" s="7" t="n"/>
       <c r="G409" s="8" t="n"/>
+      <c r="S409" s="9" t="n"/>
     </row>
     <row r="410">
       <c r="A410" s="5" t="n">
@@ -10564,7 +10735,7 @@
         <f>IF(E410&gt;1,(1.732*D410*F410)/1000,(D410*F410)/1000)</f>
         <v/>
       </c>
-      <c r="S410" t="inlineStr">
+      <c r="S410" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -10586,6 +10757,7 @@
       </c>
       <c r="F411" s="7" t="n"/>
       <c r="G411" s="8" t="n"/>
+      <c r="S411" s="9" t="n"/>
     </row>
     <row r="412">
       <c r="A412" s="5" t="n">
@@ -10603,6 +10775,7 @@
       </c>
       <c r="F412" s="7" t="n"/>
       <c r="G412" s="8" t="n"/>
+      <c r="S412" s="9" t="n"/>
     </row>
     <row r="413">
       <c r="A413" s="5" t="n">
@@ -10629,7 +10802,7 @@
         <f>IF(E413&gt;1,(1.732*D413*F413)/1000,(D413*F413)/1000)</f>
         <v/>
       </c>
-      <c r="S413" t="inlineStr">
+      <c r="S413" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -10649,7 +10822,7 @@
       </c>
       <c r="F414" s="7" t="n"/>
       <c r="G414" s="8" t="n"/>
-      <c r="S414" t="inlineStr">
+      <c r="S414" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -10669,7 +10842,7 @@
       </c>
       <c r="F415" s="7" t="n"/>
       <c r="G415" s="8" t="n"/>
-      <c r="S415" t="inlineStr">
+      <c r="S415" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -10700,7 +10873,7 @@
         <f>IF(E416&gt;1,(1.732*D416*F416)/1000,(D416*F416)/1000)</f>
         <v/>
       </c>
-      <c r="S416" t="inlineStr">
+      <c r="S416" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10722,6 +10895,7 @@
       </c>
       <c r="F417" s="7" t="n"/>
       <c r="G417" s="8" t="n"/>
+      <c r="S417" s="9" t="n"/>
     </row>
     <row r="418">
       <c r="A418" s="5" t="n">
@@ -10748,7 +10922,7 @@
         <f>IF(E418&gt;1,(1.732*D418*F418)/1000,(D418*F418)/1000)</f>
         <v/>
       </c>
-      <c r="S418" t="inlineStr">
+      <c r="S418" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10770,6 +10944,7 @@
       </c>
       <c r="F419" s="7" t="n"/>
       <c r="G419" s="8" t="n"/>
+      <c r="S419" s="9" t="n"/>
     </row>
     <row r="420">
       <c r="A420" s="5" t="n">
@@ -10787,6 +10962,7 @@
       </c>
       <c r="F420" s="7" t="n"/>
       <c r="G420" s="8" t="n"/>
+      <c r="S420" s="9" t="n"/>
     </row>
     <row r="421">
       <c r="A421" s="5" t="n">
@@ -10804,6 +10980,7 @@
       </c>
       <c r="F421" s="7" t="n"/>
       <c r="G421" s="8" t="n"/>
+      <c r="S421" s="9" t="n"/>
     </row>
     <row r="422">
       <c r="A422" s="5" t="inlineStr">
@@ -10823,6 +11000,7 @@
       </c>
       <c r="F422" s="7" t="n"/>
       <c r="G422" s="8" t="n"/>
+      <c r="S422" s="9" t="n"/>
     </row>
     <row r="423">
       <c r="A423" s="3" t="inlineStr">
@@ -10863,7 +11041,7 @@
       </c>
       <c r="F424" s="7" t="n"/>
       <c r="G424" s="8" t="n"/>
-      <c r="S424" t="inlineStr">
+      <c r="S424" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -10883,7 +11061,7 @@
       </c>
       <c r="F425" s="7" t="n"/>
       <c r="G425" s="8" t="n"/>
-      <c r="S425" t="inlineStr">
+      <c r="S425" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -10921,7 +11099,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S426" t="inlineStr">
+      <c r="S426" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -10941,7 +11119,7 @@
       </c>
       <c r="F427" s="7" t="n"/>
       <c r="G427" s="8" t="n"/>
-      <c r="S427" t="inlineStr">
+      <c r="S427" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -10963,6 +11141,7 @@
       </c>
       <c r="F428" s="7" t="n"/>
       <c r="G428" s="8" t="n"/>
+      <c r="S428" s="9" t="n"/>
     </row>
     <row r="429">
       <c r="A429" s="5" t="n">
@@ -10996,7 +11175,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S429" t="inlineStr">
+      <c r="S429" s="9" t="inlineStr">
         <is>
           <t>WITH GLASS RINSER</t>
         </is>
@@ -11016,6 +11195,7 @@
       </c>
       <c r="F430" s="7" t="n"/>
       <c r="G430" s="8" t="n"/>
+      <c r="S430" s="9" t="n"/>
     </row>
     <row r="431">
       <c r="A431" s="5" t="n">
@@ -11036,6 +11216,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S431" s="9" t="n"/>
     </row>
     <row r="432">
       <c r="A432" s="5" t="n">
@@ -11053,6 +11234,7 @@
       </c>
       <c r="F432" s="7" t="n"/>
       <c r="G432" s="8" t="n"/>
+      <c r="S432" s="9" t="n"/>
     </row>
     <row r="433">
       <c r="A433" s="5" t="n">
@@ -11070,6 +11252,7 @@
       </c>
       <c r="F433" s="7" t="n"/>
       <c r="G433" s="8" t="n"/>
+      <c r="S433" s="9" t="n"/>
     </row>
     <row r="434">
       <c r="A434" s="5" t="n">
@@ -11085,6 +11268,7 @@
       </c>
       <c r="F434" s="7" t="n"/>
       <c r="G434" s="8" t="n"/>
+      <c r="S434" s="9" t="n"/>
     </row>
     <row r="435">
       <c r="A435" s="5" t="n">
@@ -11105,6 +11289,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S435" s="9" t="n"/>
     </row>
     <row r="436">
       <c r="A436" s="5" t="n">
@@ -11120,6 +11305,7 @@
       </c>
       <c r="F436" s="7" t="n"/>
       <c r="G436" s="8" t="n"/>
+      <c r="S436" s="9" t="n"/>
     </row>
     <row r="437">
       <c r="A437" s="5" t="n">
@@ -11146,7 +11332,7 @@
         <f>IF(E437&gt;1,(1.732*D437*F437)/1000,(D437*F437)/1000)</f>
         <v/>
       </c>
-      <c r="S437" t="inlineStr">
+      <c r="S437" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -11168,6 +11354,7 @@
       </c>
       <c r="F438" s="7" t="n"/>
       <c r="G438" s="8" t="n"/>
+      <c r="S438" s="9" t="n"/>
     </row>
     <row r="439">
       <c r="A439" s="5" t="n">
@@ -11194,7 +11381,7 @@
         <f>IF(E439&gt;1,(1.732*D439*F439)/1000,(D439*F439)/1000)</f>
         <v/>
       </c>
-      <c r="S439" t="inlineStr">
+      <c r="S439" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -11214,6 +11401,7 @@
       </c>
       <c r="F440" s="7" t="n"/>
       <c r="G440" s="8" t="n"/>
+      <c r="S440" s="9" t="n"/>
     </row>
     <row r="441">
       <c r="A441" s="5" t="n">
@@ -11240,7 +11428,7 @@
         <f>IF(E441&gt;1,(1.732*D441*F441)/1000,(D441*F441)/1000)</f>
         <v/>
       </c>
-      <c r="S441" t="inlineStr">
+      <c r="S441" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -11262,6 +11450,7 @@
       </c>
       <c r="F442" s="7" t="n"/>
       <c r="G442" s="8" t="n"/>
+      <c r="S442" s="9" t="n"/>
     </row>
     <row r="443">
       <c r="A443" s="5" t="n">
@@ -11279,6 +11468,7 @@
       </c>
       <c r="F443" s="7" t="n"/>
       <c r="G443" s="8" t="n"/>
+      <c r="S443" s="9" t="n"/>
     </row>
     <row r="444">
       <c r="A444" s="5" t="n">
@@ -11305,7 +11495,7 @@
         <f>IF(E444&gt;1,(1.732*D444*F444)/1000,(D444*F444)/1000)</f>
         <v/>
       </c>
-      <c r="S444" t="inlineStr">
+      <c r="S444" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -11343,7 +11533,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S445" t="inlineStr">
+      <c r="S445" s="9" t="inlineStr">
         <is>
           <t>WITH GLASS RINSER</t>
         </is>
@@ -11363,6 +11553,7 @@
       </c>
       <c r="F446" s="7" t="n"/>
       <c r="G446" s="8" t="n"/>
+      <c r="S446" s="9" t="n"/>
     </row>
     <row r="447">
       <c r="A447" s="5" t="n">
@@ -11383,6 +11574,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S447" s="9" t="n"/>
     </row>
     <row r="448">
       <c r="A448" s="5" t="n">
@@ -11400,6 +11592,7 @@
       </c>
       <c r="F448" s="7" t="n"/>
       <c r="G448" s="8" t="n"/>
+      <c r="S448" s="9" t="n"/>
     </row>
     <row r="449">
       <c r="A449" s="5" t="n">
@@ -11415,6 +11608,7 @@
       </c>
       <c r="F449" s="7" t="n"/>
       <c r="G449" s="8" t="n"/>
+      <c r="S449" s="9" t="n"/>
     </row>
     <row r="450">
       <c r="A450" s="5" t="n">
@@ -11435,6 +11629,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S450" s="9" t="n"/>
     </row>
     <row r="451">
       <c r="A451" s="5" t="n">
@@ -11466,7 +11661,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S451" t="inlineStr">
+      <c r="S451" s="9" t="inlineStr">
         <is>
           <t>WITH DRAWERS</t>
         </is>
@@ -11488,6 +11683,7 @@
       </c>
       <c r="F452" s="7" t="n"/>
       <c r="G452" s="8" t="n"/>
+      <c r="S452" s="9" t="n"/>
     </row>
     <row r="453">
       <c r="A453" s="5" t="n">
@@ -11505,6 +11701,7 @@
       </c>
       <c r="F453" s="7" t="n"/>
       <c r="G453" s="8" t="n"/>
+      <c r="S453" s="9" t="n"/>
     </row>
     <row r="454">
       <c r="A454" s="5" t="n">
@@ -11549,7 +11746,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S454" t="inlineStr">
+      <c r="S454" s="9" t="inlineStr">
         <is>
           <t>180° RINSE</t>
         </is>
@@ -11571,6 +11768,7 @@
       </c>
       <c r="F455" s="7" t="n"/>
       <c r="G455" s="8" t="n"/>
+      <c r="S455" s="9" t="n"/>
     </row>
     <row r="456">
       <c r="A456" s="5" t="n">
@@ -11588,6 +11786,7 @@
       </c>
       <c r="F456" s="7" t="n"/>
       <c r="G456" s="8" t="n"/>
+      <c r="S456" s="9" t="n"/>
     </row>
     <row r="457">
       <c r="A457" s="5" t="n">
@@ -11605,6 +11804,7 @@
       </c>
       <c r="F457" s="7" t="n"/>
       <c r="G457" s="8" t="n"/>
+      <c r="S457" s="9" t="n"/>
     </row>
     <row r="458">
       <c r="A458" s="5" t="inlineStr">
@@ -11624,6 +11824,7 @@
       </c>
       <c r="F458" s="7" t="n"/>
       <c r="G458" s="8" t="n"/>
+      <c r="S458" s="9" t="n"/>
     </row>
     <row r="459">
       <c r="A459" s="3" t="inlineStr">
@@ -11664,7 +11865,7 @@
       </c>
       <c r="F460" s="7" t="n"/>
       <c r="G460" s="8" t="n"/>
-      <c r="S460" t="inlineStr">
+      <c r="S460" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -11684,7 +11885,7 @@
       </c>
       <c r="F461" s="7" t="n"/>
       <c r="G461" s="8" t="n"/>
-      <c r="S461" t="inlineStr">
+      <c r="S461" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -11715,7 +11916,7 @@
         <f>IF(E462&gt;1,(1.732*D462*F462)/1000,(D462*F462)/1000)</f>
         <v/>
       </c>
-      <c r="S462" t="inlineStr">
+      <c r="S462" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -11740,6 +11941,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S463" s="9" t="n"/>
     </row>
     <row r="464">
       <c r="A464" s="5" t="n">
@@ -11757,6 +11959,7 @@
       </c>
       <c r="F464" s="7" t="n"/>
       <c r="G464" s="8" t="n"/>
+      <c r="S464" s="9" t="n"/>
     </row>
     <row r="465">
       <c r="A465" s="5" t="n">
@@ -11772,6 +11975,7 @@
       </c>
       <c r="F465" s="7" t="n"/>
       <c r="G465" s="8" t="n"/>
+      <c r="S465" s="9" t="n"/>
     </row>
     <row r="466">
       <c r="A466" s="5" t="n">
@@ -11792,6 +11996,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S466" s="9" t="n"/>
     </row>
     <row r="467">
       <c r="A467" s="5" t="n">
@@ -11807,6 +12012,7 @@
       </c>
       <c r="F467" s="7" t="n"/>
       <c r="G467" s="8" t="n"/>
+      <c r="S467" s="9" t="n"/>
     </row>
     <row r="468">
       <c r="A468" s="5" t="n">
@@ -11824,6 +12030,7 @@
       </c>
       <c r="F468" s="7" t="n"/>
       <c r="G468" s="8" t="n"/>
+      <c r="S468" s="9" t="n"/>
     </row>
     <row r="469">
       <c r="A469" s="5" t="n">
@@ -11841,6 +12048,7 @@
       </c>
       <c r="F469" s="7" t="n"/>
       <c r="G469" s="8" t="n"/>
+      <c r="S469" s="9" t="n"/>
     </row>
     <row r="470">
       <c r="A470" s="5" t="n">
@@ -11874,7 +12082,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S470" t="inlineStr">
+      <c r="S470" s="9" t="inlineStr">
         <is>
           <t>WITH GLASS RINSER</t>
         </is>
@@ -11894,6 +12102,7 @@
       </c>
       <c r="F471" s="7" t="n"/>
       <c r="G471" s="8" t="n"/>
+      <c r="S471" s="9" t="n"/>
     </row>
     <row r="472">
       <c r="A472" s="5" t="n">
@@ -11920,7 +12129,7 @@
         <f>IF(E472&gt;1,(1.732*D472*F472)/1000,(D472*F472)/1000)</f>
         <v/>
       </c>
-      <c r="S472" t="inlineStr">
+      <c r="S472" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -11951,7 +12160,7 @@
         <f>IF(E473&gt;1,(1.732*D473*F473)/1000,(D473*F473)/1000)</f>
         <v/>
       </c>
-      <c r="S473" t="inlineStr">
+      <c r="S473" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -11973,6 +12182,7 @@
       </c>
       <c r="F474" s="7" t="n"/>
       <c r="G474" s="8" t="n"/>
+      <c r="S474" s="9" t="n"/>
     </row>
     <row r="475">
       <c r="A475" s="5" t="n">
@@ -11999,7 +12209,7 @@
         <f>IF(E475&gt;1,(1.732*D475*F475)/1000,(D475*F475)/1000)</f>
         <v/>
       </c>
-      <c r="S475" t="inlineStr">
+      <c r="S475" s="9" t="inlineStr">
         <is>
           <t>WITH DRAWERS</t>
         </is>
@@ -12019,7 +12229,7 @@
       </c>
       <c r="F476" s="7" t="n"/>
       <c r="G476" s="8" t="n"/>
-      <c r="S476" t="inlineStr">
+      <c r="S476" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -12039,7 +12249,7 @@
       </c>
       <c r="F477" s="7" t="n"/>
       <c r="G477" s="8" t="n"/>
-      <c r="S477" t="inlineStr">
+      <c r="S477" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -12061,6 +12271,7 @@
       </c>
       <c r="F478" s="7" t="n"/>
       <c r="G478" s="8" t="n"/>
+      <c r="S478" s="9" t="n"/>
     </row>
     <row r="479">
       <c r="A479" s="5" t="n">
@@ -12078,6 +12289,7 @@
       </c>
       <c r="F479" s="7" t="n"/>
       <c r="G479" s="8" t="n"/>
+      <c r="S479" s="9" t="n"/>
     </row>
     <row r="480">
       <c r="A480" s="5" t="n">
@@ -12109,7 +12321,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S480" t="inlineStr">
+      <c r="S480" s="9" t="inlineStr">
         <is>
           <t>WITH DRAWERS</t>
         </is>
@@ -12129,7 +12341,7 @@
       </c>
       <c r="F481" s="7" t="n"/>
       <c r="G481" s="8" t="n"/>
-      <c r="S481" t="inlineStr">
+      <c r="S481" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -12154,6 +12366,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S482" s="9" t="n"/>
     </row>
     <row r="483">
       <c r="A483" s="5" t="n">
@@ -12169,6 +12382,7 @@
       </c>
       <c r="F483" s="7" t="n"/>
       <c r="G483" s="8" t="n"/>
+      <c r="S483" s="9" t="n"/>
     </row>
     <row r="484">
       <c r="A484" s="5" t="n">
@@ -12186,6 +12400,7 @@
       </c>
       <c r="F484" s="7" t="n"/>
       <c r="G484" s="8" t="n"/>
+      <c r="S484" s="9" t="n"/>
     </row>
     <row r="485">
       <c r="A485" s="5" t="n">
@@ -12206,6 +12421,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S485" s="9" t="n"/>
     </row>
     <row r="486">
       <c r="A486" s="5" t="n">
@@ -12221,6 +12437,7 @@
       </c>
       <c r="F486" s="7" t="n"/>
       <c r="G486" s="8" t="n"/>
+      <c r="S486" s="9" t="n"/>
     </row>
     <row r="487">
       <c r="A487" s="5" t="n">
@@ -12236,7 +12453,7 @@
       </c>
       <c r="F487" s="7" t="n"/>
       <c r="G487" s="8" t="n"/>
-      <c r="S487" t="inlineStr">
+      <c r="S487" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -12258,6 +12475,7 @@
       </c>
       <c r="F488" s="7" t="n"/>
       <c r="G488" s="8" t="n"/>
+      <c r="S488" s="9" t="n"/>
     </row>
     <row r="489">
       <c r="A489" s="5" t="n">
@@ -12275,6 +12493,7 @@
       </c>
       <c r="F489" s="7" t="n"/>
       <c r="G489" s="8" t="n"/>
+      <c r="S489" s="9" t="n"/>
     </row>
     <row r="490">
       <c r="A490" s="5" t="n">
@@ -12308,7 +12527,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S490" t="inlineStr">
+      <c r="S490" s="9" t="inlineStr">
         <is>
           <t>WITH GLASS RINSER</t>
         </is>
@@ -12328,7 +12547,7 @@
       </c>
       <c r="F491" s="7" t="n"/>
       <c r="G491" s="8" t="n"/>
-      <c r="S491" t="inlineStr">
+      <c r="S491" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -12348,6 +12567,7 @@
       </c>
       <c r="F492" s="7" t="n"/>
       <c r="G492" s="8" t="n"/>
+      <c r="S492" s="9" t="n"/>
     </row>
     <row r="493">
       <c r="A493" s="5" t="n">
@@ -12374,7 +12594,7 @@
         <f>IF(E493&gt;1,(1.732*D493*F493)/1000,(D493*F493)/1000)</f>
         <v/>
       </c>
-      <c r="S493" t="inlineStr">
+      <c r="S493" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -12396,6 +12616,7 @@
       </c>
       <c r="F494" s="7" t="n"/>
       <c r="G494" s="8" t="n"/>
+      <c r="S494" s="9" t="n"/>
     </row>
     <row r="495">
       <c r="A495" s="5" t="n">
@@ -12422,7 +12643,7 @@
         <f>IF(E495&gt;1,(1.732*D495*F495)/1000,(D495*F495)/1000)</f>
         <v/>
       </c>
-      <c r="S495" t="inlineStr">
+      <c r="S495" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -12442,7 +12663,7 @@
       </c>
       <c r="F496" s="7" t="n"/>
       <c r="G496" s="8" t="n"/>
-      <c r="S496" t="inlineStr">
+      <c r="S496" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -12473,7 +12694,7 @@
         <f>IF(E497&gt;1,(1.732*D497*F497)/1000,(D497*F497)/1000)</f>
         <v/>
       </c>
-      <c r="S497" t="inlineStr">
+      <c r="S497" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -12495,6 +12716,7 @@
       </c>
       <c r="F498" s="7" t="n"/>
       <c r="G498" s="8" t="n"/>
+      <c r="S498" s="9" t="n"/>
     </row>
     <row r="499">
       <c r="A499" s="5" t="n">
@@ -12512,6 +12734,7 @@
       </c>
       <c r="F499" s="7" t="n"/>
       <c r="G499" s="8" t="n"/>
+      <c r="S499" s="9" t="n"/>
     </row>
     <row r="500">
       <c r="A500" s="5" t="n">
@@ -12527,7 +12750,7 @@
       </c>
       <c r="F500" s="7" t="n"/>
       <c r="G500" s="8" t="n"/>
-      <c r="S500" t="inlineStr">
+      <c r="S500" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -12558,7 +12781,7 @@
         <f>IF(E501&gt;1,(1.732*D501*F501)/1000,(D501*F501)/1000)</f>
         <v/>
       </c>
-      <c r="S501" t="inlineStr">
+      <c r="S501" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -12578,7 +12801,7 @@
       </c>
       <c r="F502" s="7" t="n"/>
       <c r="G502" s="8" t="n"/>
-      <c r="S502" t="inlineStr">
+      <c r="S502" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -12603,6 +12826,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S503" s="9" t="n"/>
     </row>
     <row r="504">
       <c r="A504" s="5" t="n">
@@ -12620,6 +12844,7 @@
       </c>
       <c r="F504" s="7" t="n"/>
       <c r="G504" s="8" t="n"/>
+      <c r="S504" s="9" t="n"/>
     </row>
     <row r="505">
       <c r="A505" s="5" t="n">
@@ -12664,7 +12889,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S505" t="inlineStr">
+      <c r="S505" s="9" t="inlineStr">
         <is>
           <t>180° RINSE</t>
         </is>
@@ -12689,6 +12914,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S506" s="9" t="n"/>
     </row>
     <row r="507">
       <c r="A507" s="5" t="n">
@@ -12715,7 +12941,7 @@
         <f>IF(E507&gt;1,(1.732*D507*F507)/1000,(D507*F507)/1000)</f>
         <v/>
       </c>
-      <c r="S507" t="inlineStr">
+      <c r="S507" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -12737,6 +12963,7 @@
       </c>
       <c r="F508" s="7" t="n"/>
       <c r="G508" s="8" t="n"/>
+      <c r="S508" s="9" t="n"/>
     </row>
     <row r="509">
       <c r="A509" s="5" t="n">
@@ -12754,6 +12981,7 @@
       </c>
       <c r="F509" s="7" t="n"/>
       <c r="G509" s="8" t="n"/>
+      <c r="S509" s="9" t="n"/>
     </row>
     <row r="510">
       <c r="A510" s="5" t="n">
@@ -12774,6 +13002,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S510" s="9" t="n"/>
     </row>
     <row r="511">
       <c r="A511" s="5" t="n">
@@ -12789,6 +13018,7 @@
       </c>
       <c r="F511" s="7" t="n"/>
       <c r="G511" s="8" t="n"/>
+      <c r="S511" s="9" t="n"/>
     </row>
     <row r="512">
       <c r="A512" s="5" t="n">
@@ -12809,6 +13039,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S512" s="9" t="n"/>
     </row>
     <row r="513">
       <c r="A513" s="5" t="n">
@@ -12824,6 +13055,7 @@
       </c>
       <c r="F513" s="7" t="n"/>
       <c r="G513" s="8" t="n"/>
+      <c r="S513" s="9" t="n"/>
     </row>
     <row r="514">
       <c r="A514" s="5" t="n">
@@ -12841,6 +13073,7 @@
       </c>
       <c r="F514" s="7" t="n"/>
       <c r="G514" s="8" t="n"/>
+      <c r="S514" s="9" t="n"/>
     </row>
     <row r="515">
       <c r="A515" s="5" t="n">
@@ -12874,7 +13107,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S515" t="inlineStr">
+      <c r="S515" s="9" t="inlineStr">
         <is>
           <t>WITH GLASS RINSER</t>
         </is>
@@ -12894,6 +13127,7 @@
       </c>
       <c r="F516" s="7" t="n"/>
       <c r="G516" s="8" t="n"/>
+      <c r="S516" s="9" t="n"/>
     </row>
     <row r="517">
       <c r="A517" s="5" t="n">
@@ -12920,7 +13154,7 @@
         <f>IF(E517&gt;1,(1.732*D517*F517)/1000,(D517*F517)/1000)</f>
         <v/>
       </c>
-      <c r="S517" t="inlineStr">
+      <c r="S517" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -12942,6 +13176,7 @@
       </c>
       <c r="F518" s="7" t="n"/>
       <c r="G518" s="8" t="n"/>
+      <c r="S518" s="9" t="n"/>
     </row>
     <row r="519">
       <c r="A519" s="5" t="n">
@@ -12959,6 +13194,7 @@
       </c>
       <c r="F519" s="7" t="n"/>
       <c r="G519" s="8" t="n"/>
+      <c r="S519" s="9" t="n"/>
     </row>
     <row r="520">
       <c r="A520" s="5" t="n">
@@ -12985,7 +13221,7 @@
         <f>IF(E520&gt;1,(1.732*D520*F520)/1000,(D520*F520)/1000)</f>
         <v/>
       </c>
-      <c r="S520" t="inlineStr">
+      <c r="S520" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -13005,7 +13241,7 @@
       </c>
       <c r="F521" s="7" t="n"/>
       <c r="G521" s="8" t="n"/>
-      <c r="S521" t="inlineStr">
+      <c r="S521" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -13043,7 +13279,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S522" t="inlineStr">
+      <c r="S522" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -13063,7 +13299,7 @@
       </c>
       <c r="F523" s="7" t="n"/>
       <c r="G523" s="8" t="n"/>
-      <c r="S523" t="inlineStr">
+      <c r="S523" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -13085,6 +13321,7 @@
       </c>
       <c r="F524" s="7" t="n"/>
       <c r="G524" s="8" t="n"/>
+      <c r="S524" s="9" t="n"/>
     </row>
     <row r="525">
       <c r="A525" s="5" t="n">
@@ -13111,7 +13348,7 @@
         <f>IF(E525&gt;1,(1.732*D525*F525)/1000,(D525*F525)/1000)</f>
         <v/>
       </c>
-      <c r="S525" t="inlineStr">
+      <c r="S525" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -13142,7 +13379,7 @@
         <f>IF(E526&gt;1,(1.732*D526*F526)/1000,(D526*F526)/1000)</f>
         <v/>
       </c>
-      <c r="S526" t="inlineStr">
+      <c r="S526" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -13162,7 +13399,7 @@
       </c>
       <c r="F527" s="7" t="n"/>
       <c r="G527" s="8" t="n"/>
-      <c r="S527" t="inlineStr">
+      <c r="S527" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -13184,6 +13421,7 @@
       </c>
       <c r="F528" s="7" t="n"/>
       <c r="G528" s="8" t="n"/>
+      <c r="S528" s="9" t="n"/>
     </row>
     <row r="529">
       <c r="A529" s="5" t="n">
@@ -13201,6 +13439,7 @@
       </c>
       <c r="F529" s="7" t="n"/>
       <c r="G529" s="8" t="n"/>
+      <c r="S529" s="9" t="n"/>
     </row>
     <row r="530">
       <c r="A530" s="5" t="n">
@@ -13227,7 +13466,7 @@
         <f>IF(E530&gt;1,(1.732*D530*F530)/1000,(D530*F530)/1000)</f>
         <v/>
       </c>
-      <c r="S530" t="inlineStr">
+      <c r="S530" s="9" t="inlineStr">
         <is>
           <t>SELF-CONTAINED</t>
         </is>
@@ -13249,6 +13488,7 @@
       </c>
       <c r="F531" s="7" t="n"/>
       <c r="G531" s="8" t="n"/>
+      <c r="S531" s="9" t="n"/>
     </row>
     <row r="532">
       <c r="A532" s="5" t="n">
@@ -13266,6 +13506,7 @@
       </c>
       <c r="F532" s="7" t="n"/>
       <c r="G532" s="8" t="n"/>
+      <c r="S532" s="9" t="n"/>
     </row>
     <row r="533">
       <c r="A533" s="5" t="n">
@@ -13283,6 +13524,7 @@
       </c>
       <c r="F533" s="7" t="n"/>
       <c r="G533" s="8" t="n"/>
+      <c r="S533" s="9" t="n"/>
     </row>
     <row r="534">
       <c r="A534" s="5" t="inlineStr">
@@ -13302,6 +13544,7 @@
       </c>
       <c r="F534" s="7" t="n"/>
       <c r="G534" s="8" t="n"/>
+      <c r="S534" s="9" t="n"/>
     </row>
     <row r="535">
       <c r="A535" s="3" t="inlineStr">
@@ -13347,7 +13590,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S536" t="inlineStr">
+      <c r="S536" s="9" t="inlineStr">
         <is>
           <t>500LBS.</t>
         </is>
@@ -13388,7 +13631,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S537" t="inlineStr">
+      <c r="S537" s="9" t="inlineStr">
         <is>
           <t>380LBS AIR-COOLED CUBE ICE</t>
         </is>
@@ -13413,7 +13656,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S538" t="inlineStr">
+      <c r="S538" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -13457,7 +13700,7 @@
       <c r="N539" t="n">
         <v>5000</v>
       </c>
-      <c r="S539" t="inlineStr">
+      <c r="S539" s="9" t="inlineStr">
         <is>
           <t>690LBS AIR-COOLED CUBELET ICE</t>
         </is>
@@ -13479,6 +13722,7 @@
       </c>
       <c r="F540" s="7" t="n"/>
       <c r="G540" s="8" t="n"/>
+      <c r="S540" s="9" t="n"/>
     </row>
     <row r="541">
       <c r="A541" s="5" t="n">
@@ -13499,7 +13743,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S541" t="inlineStr">
+      <c r="S541" s="9" t="inlineStr">
         <is>
           <t>300LBS.</t>
         </is>
@@ -13524,7 +13768,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S542" t="inlineStr">
+      <c r="S542" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #1002</t>
         </is>
@@ -13549,7 +13793,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S543" t="inlineStr">
+      <c r="S543" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #1004</t>
         </is>
@@ -13571,6 +13815,7 @@
       </c>
       <c r="F544" s="7" t="n"/>
       <c r="G544" s="8" t="n"/>
+      <c r="S544" s="9" t="n"/>
     </row>
     <row r="545">
       <c r="A545" s="5" t="n">
@@ -13588,6 +13833,7 @@
       </c>
       <c r="F545" s="7" t="n"/>
       <c r="G545" s="8" t="n"/>
+      <c r="S545" s="9" t="n"/>
     </row>
     <row r="546">
       <c r="A546" s="5" t="n">
@@ -13603,7 +13849,7 @@
       </c>
       <c r="F546" s="7" t="n"/>
       <c r="G546" s="8" t="n"/>
-      <c r="S546" t="inlineStr">
+      <c r="S546" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -13634,7 +13880,7 @@
         <f>IF(E547&gt;1,(1.732*D547*F547)/1000,(D547*F547)/1000)</f>
         <v/>
       </c>
-      <c r="S547" t="inlineStr">
+      <c r="S547" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -13659,7 +13905,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S548" t="inlineStr">
+      <c r="S548" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -13700,6 +13946,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S549" s="9" t="n"/>
     </row>
     <row r="550">
       <c r="A550" s="5" t="n">
@@ -13717,6 +13964,7 @@
       </c>
       <c r="F550" s="7" t="n"/>
       <c r="G550" s="8" t="n"/>
+      <c r="S550" s="9" t="n"/>
     </row>
     <row r="551">
       <c r="A551" s="5" t="n">
@@ -13732,7 +13980,7 @@
       </c>
       <c r="F551" s="7" t="n"/>
       <c r="G551" s="8" t="n"/>
-      <c r="S551" t="inlineStr">
+      <c r="S551" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -13765,7 +14013,7 @@
       <c r="J552" t="n">
         <v>50</v>
       </c>
-      <c r="S552" t="inlineStr">
+      <c r="S552" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -13787,6 +14035,7 @@
       </c>
       <c r="F553" s="7" t="n"/>
       <c r="G553" s="8" t="n"/>
+      <c r="S553" s="9" t="n"/>
     </row>
     <row r="554">
       <c r="A554" s="5" t="n">
@@ -13804,6 +14053,7 @@
       </c>
       <c r="F554" s="7" t="n"/>
       <c r="G554" s="8" t="n"/>
+      <c r="S554" s="9" t="n"/>
     </row>
     <row r="555">
       <c r="A555" s="5" t="n">
@@ -13821,6 +14071,7 @@
       </c>
       <c r="F555" s="7" t="n"/>
       <c r="G555" s="8" t="n"/>
+      <c r="S555" s="9" t="n"/>
     </row>
     <row r="556">
       <c r="A556" s="3" t="inlineStr">
@@ -13861,7 +14112,7 @@
       </c>
       <c r="F557" s="7" t="n"/>
       <c r="G557" s="8" t="n"/>
-      <c r="S557" t="inlineStr">
+      <c r="S557" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -13881,7 +14132,7 @@
       </c>
       <c r="F558" s="7" t="n"/>
       <c r="G558" s="8" t="n"/>
-      <c r="S558" t="inlineStr">
+      <c r="S558" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -13919,7 +14170,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S559" t="inlineStr">
+      <c r="S559" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -13939,7 +14190,7 @@
       </c>
       <c r="F560" s="7" t="n"/>
       <c r="G560" s="8" t="n"/>
-      <c r="S560" t="inlineStr">
+      <c r="S560" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -13961,6 +14212,7 @@
       </c>
       <c r="F561" s="7" t="n"/>
       <c r="G561" s="8" t="n"/>
+      <c r="S561" s="9" t="n"/>
     </row>
     <row r="562">
       <c r="A562" s="5" t="n">
@@ -13987,7 +14239,7 @@
         <f>IF(E562&gt;1,(1.732*D562*F562)/1000,(D562*F562)/1000)</f>
         <v/>
       </c>
-      <c r="S562" t="inlineStr">
+      <c r="S562" s="9" t="inlineStr">
         <is>
           <t>WITH DRAWERS</t>
         </is>
@@ -14007,7 +14259,7 @@
       </c>
       <c r="F563" s="7" t="n"/>
       <c r="G563" s="8" t="n"/>
-      <c r="S563" t="inlineStr">
+      <c r="S563" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -14032,6 +14284,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S564" s="9" t="n"/>
     </row>
     <row r="565">
       <c r="A565" s="5" t="n">
@@ -14049,6 +14302,7 @@
       </c>
       <c r="F565" s="7" t="n"/>
       <c r="G565" s="8" t="n"/>
+      <c r="S565" s="9" t="n"/>
     </row>
     <row r="566">
       <c r="A566" s="5" t="n">
@@ -14066,6 +14320,7 @@
       </c>
       <c r="F566" s="7" t="n"/>
       <c r="G566" s="8" t="n"/>
+      <c r="S566" s="9" t="n"/>
     </row>
     <row r="567">
       <c r="A567" s="5" t="n">
@@ -14081,6 +14336,7 @@
       </c>
       <c r="F567" s="7" t="n"/>
       <c r="G567" s="8" t="n"/>
+      <c r="S567" s="9" t="n"/>
     </row>
     <row r="568">
       <c r="A568" s="5" t="n">
@@ -14101,6 +14357,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S568" s="9" t="n"/>
     </row>
     <row r="569">
       <c r="A569" s="5" t="n">
@@ -14116,6 +14373,7 @@
       </c>
       <c r="F569" s="7" t="n"/>
       <c r="G569" s="8" t="n"/>
+      <c r="S569" s="9" t="n"/>
     </row>
     <row r="570">
       <c r="A570" s="5" t="n">
@@ -14149,7 +14407,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S570" t="inlineStr">
+      <c r="S570" s="9" t="inlineStr">
         <is>
           <t>WITH GLASS RINSER</t>
         </is>
@@ -14171,6 +14429,7 @@
       </c>
       <c r="F571" s="7" t="n"/>
       <c r="G571" s="8" t="n"/>
+      <c r="S571" s="9" t="n"/>
     </row>
     <row r="572">
       <c r="A572" s="5" t="n">
@@ -14186,6 +14445,7 @@
       </c>
       <c r="F572" s="7" t="n"/>
       <c r="G572" s="8" t="n"/>
+      <c r="S572" s="9" t="n"/>
     </row>
     <row r="573">
       <c r="A573" s="5" t="n">
@@ -14212,7 +14472,7 @@
         <f>IF(E573&gt;1,(1.732*D573*F573)/1000,(D573*F573)/1000)</f>
         <v/>
       </c>
-      <c r="S573" t="inlineStr">
+      <c r="S573" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -14243,7 +14503,7 @@
         <f>IF(E574&gt;1,(1.732*D574*F574)/1000,(D574*F574)/1000)</f>
         <v/>
       </c>
-      <c r="S574" t="inlineStr">
+      <c r="S574" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -14265,6 +14525,7 @@
       </c>
       <c r="F575" s="7" t="n"/>
       <c r="G575" s="8" t="n"/>
+      <c r="S575" s="9" t="n"/>
     </row>
     <row r="576">
       <c r="A576" s="5" t="n">
@@ -14282,6 +14543,7 @@
       </c>
       <c r="F576" s="7" t="n"/>
       <c r="G576" s="8" t="n"/>
+      <c r="S576" s="9" t="n"/>
     </row>
     <row r="577">
       <c r="A577" s="5" t="n">
@@ -14297,7 +14559,7 @@
       </c>
       <c r="F577" s="7" t="n"/>
       <c r="G577" s="8" t="n"/>
-      <c r="S577" t="inlineStr">
+      <c r="S577" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -14328,7 +14590,7 @@
         <f>IF(E578&gt;1,(1.732*D578*F578)/1000,(D578*F578)/1000)</f>
         <v/>
       </c>
-      <c r="S578" t="inlineStr">
+      <c r="S578" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -14359,7 +14621,7 @@
         <f>IF(E579&gt;1,(1.732*D579*F579)/1000,(D579*F579)/1000)</f>
         <v/>
       </c>
-      <c r="S579" t="inlineStr">
+      <c r="S579" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -14381,6 +14643,7 @@
       </c>
       <c r="F580" s="7" t="n"/>
       <c r="G580" s="8" t="n"/>
+      <c r="S580" s="9" t="n"/>
     </row>
     <row r="581">
       <c r="A581" s="5" t="inlineStr">
@@ -14400,6 +14663,7 @@
       </c>
       <c r="F581" s="7" t="n"/>
       <c r="G581" s="8" t="n"/>
+      <c r="S581" s="9" t="n"/>
     </row>
     <row r="582">
       <c r="A582" s="3" t="inlineStr">
@@ -14445,7 +14709,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S583" t="inlineStr">
+      <c r="S583" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #1104</t>
         </is>
@@ -14470,7 +14734,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S584" t="inlineStr">
+      <c r="S584" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #1107</t>
         </is>
@@ -14495,7 +14759,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S585" t="inlineStr">
+      <c r="S585" s="9" t="inlineStr">
         <is>
           <t>300LBS.</t>
         </is>
@@ -14539,7 +14803,7 @@
       <c r="N586" t="n">
         <v>5000</v>
       </c>
-      <c r="S586" t="inlineStr">
+      <c r="S586" s="9" t="inlineStr">
         <is>
           <t>690LBS AIR-COOLED CUBELET ICE</t>
         </is>
@@ -14561,6 +14825,7 @@
       </c>
       <c r="F587" s="7" t="n"/>
       <c r="G587" s="8" t="n"/>
+      <c r="S587" s="9" t="n"/>
     </row>
     <row r="588">
       <c r="A588" s="5" t="n">
@@ -14581,7 +14846,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S588" t="inlineStr">
+      <c r="S588" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -14622,7 +14887,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S589" t="inlineStr">
+      <c r="S589" s="9" t="inlineStr">
         <is>
           <t>380LBS AIR-COOLED CUBE ICE</t>
         </is>
@@ -14647,7 +14912,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S590" t="inlineStr">
+      <c r="S590" s="9" t="inlineStr">
         <is>
           <t>500LBS.</t>
         </is>
@@ -14669,6 +14934,7 @@
       </c>
       <c r="F591" s="7" t="n"/>
       <c r="G591" s="8" t="n"/>
+      <c r="S591" s="9" t="n"/>
     </row>
     <row r="592">
       <c r="A592" s="5" t="n">
@@ -14686,6 +14952,7 @@
       </c>
       <c r="F592" s="7" t="n"/>
       <c r="G592" s="8" t="n"/>
+      <c r="S592" s="9" t="n"/>
     </row>
     <row r="593">
       <c r="A593" s="5" t="n">
@@ -14722,6 +14989,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S593" s="9" t="n"/>
     </row>
     <row r="594">
       <c r="A594" s="5" t="n">
@@ -14737,7 +15005,7 @@
       </c>
       <c r="F594" s="7" t="n"/>
       <c r="G594" s="8" t="n"/>
-      <c r="S594" t="inlineStr">
+      <c r="S594" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -14770,7 +15038,7 @@
       <c r="J595" t="n">
         <v>50</v>
       </c>
-      <c r="S595" t="inlineStr">
+      <c r="S595" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -14795,7 +15063,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S596" t="inlineStr">
+      <c r="S596" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -14817,6 +15085,7 @@
       </c>
       <c r="F597" s="7" t="n"/>
       <c r="G597" s="8" t="n"/>
+      <c r="S597" s="9" t="n"/>
     </row>
     <row r="598">
       <c r="A598" s="5" t="n">
@@ -14832,7 +15101,7 @@
       </c>
       <c r="F598" s="7" t="n"/>
       <c r="G598" s="8" t="n"/>
-      <c r="S598" t="inlineStr">
+      <c r="S598" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -14863,7 +15132,7 @@
         <f>IF(E599&gt;1,(1.732*D599*F599)/1000,(D599*F599)/1000)</f>
         <v/>
       </c>
-      <c r="S599" t="inlineStr">
+      <c r="S599" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -14885,6 +15154,7 @@
       </c>
       <c r="F600" s="7" t="n"/>
       <c r="G600" s="8" t="n"/>
+      <c r="S600" s="9" t="n"/>
     </row>
     <row r="601">
       <c r="A601" s="5" t="n">
@@ -14902,6 +15172,7 @@
       </c>
       <c r="F601" s="7" t="n"/>
       <c r="G601" s="8" t="n"/>
+      <c r="S601" s="9" t="n"/>
     </row>
     <row r="602">
       <c r="A602" s="5" t="n">
@@ -14919,6 +15190,7 @@
       </c>
       <c r="F602" s="7" t="n"/>
       <c r="G602" s="8" t="n"/>
+      <c r="S602" s="9" t="n"/>
     </row>
     <row r="603">
       <c r="A603" s="3" t="inlineStr">
@@ -14959,7 +15231,7 @@
       </c>
       <c r="F604" s="7" t="n"/>
       <c r="G604" s="8" t="n"/>
-      <c r="S604" t="inlineStr">
+      <c r="S604" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -14997,7 +15269,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S605" t="inlineStr">
+      <c r="S605" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -15017,7 +15289,7 @@
       </c>
       <c r="F606" s="7" t="n"/>
       <c r="G606" s="8" t="n"/>
-      <c r="S606" t="inlineStr">
+      <c r="S606" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -15037,6 +15309,7 @@
       </c>
       <c r="F607" s="7" t="n"/>
       <c r="G607" s="8" t="n"/>
+      <c r="S607" s="9" t="n"/>
     </row>
     <row r="608">
       <c r="A608" s="5" t="n">
@@ -15054,6 +15327,7 @@
       </c>
       <c r="F608" s="7" t="n"/>
       <c r="G608" s="8" t="n"/>
+      <c r="S608" s="9" t="n"/>
     </row>
     <row r="609">
       <c r="A609" s="5" t="n">
@@ -15080,7 +15354,7 @@
         <f>IF(E609&gt;1,(1.732*D609*F609)/1000,(D609*F609)/1000)</f>
         <v/>
       </c>
-      <c r="S609" t="inlineStr">
+      <c r="S609" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -15111,7 +15385,7 @@
         <f>IF(E610&gt;1,(1.732*D610*F610)/1000,(D610*F610)/1000)</f>
         <v/>
       </c>
-      <c r="S610" t="inlineStr">
+      <c r="S610" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -15149,7 +15423,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S611" t="inlineStr">
+      <c r="S611" s="9" t="inlineStr">
         <is>
           <t>WITH GLASS RINSER</t>
         </is>
@@ -15171,6 +15445,7 @@
       </c>
       <c r="F612" s="7" t="n"/>
       <c r="G612" s="8" t="n"/>
+      <c r="S612" s="9" t="n"/>
     </row>
     <row r="613">
       <c r="A613" s="5" t="n">
@@ -15188,6 +15463,7 @@
       </c>
       <c r="F613" s="7" t="n"/>
       <c r="G613" s="8" t="n"/>
+      <c r="S613" s="9" t="n"/>
     </row>
     <row r="614">
       <c r="A614" s="5" t="n">
@@ -15203,6 +15479,7 @@
       </c>
       <c r="F614" s="7" t="n"/>
       <c r="G614" s="8" t="n"/>
+      <c r="S614" s="9" t="n"/>
     </row>
     <row r="615">
       <c r="A615" s="5" t="n">
@@ -15218,6 +15495,7 @@
       </c>
       <c r="F615" s="7" t="n"/>
       <c r="G615" s="8" t="n"/>
+      <c r="S615" s="9" t="n"/>
     </row>
     <row r="616">
       <c r="A616" s="5" t="n">
@@ -15238,6 +15516,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S616" s="9" t="n"/>
     </row>
     <row r="617">
       <c r="A617" s="5" t="n">
@@ -15258,6 +15537,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S617" s="9" t="n"/>
     </row>
     <row r="618">
       <c r="A618" s="5" t="n">
@@ -15275,6 +15555,7 @@
       </c>
       <c r="F618" s="7" t="n"/>
       <c r="G618" s="8" t="n"/>
+      <c r="S618" s="9" t="n"/>
     </row>
     <row r="619">
       <c r="A619" s="5" t="n">
@@ -15301,7 +15582,7 @@
         <f>IF(E619&gt;1,(1.732*D619*F619)/1000,(D619*F619)/1000)</f>
         <v/>
       </c>
-      <c r="S619" t="inlineStr">
+      <c r="S619" s="9" t="inlineStr">
         <is>
           <t>WITH DRAWERS</t>
         </is>
@@ -15321,7 +15602,7 @@
       </c>
       <c r="F620" s="7" t="n"/>
       <c r="G620" s="8" t="n"/>
-      <c r="S620" t="inlineStr">
+      <c r="S620" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15352,7 +15633,7 @@
         <f>IF(E621&gt;1,(1.732*D621*F621)/1000,(D621*F621)/1000)</f>
         <v/>
       </c>
-      <c r="S621" t="inlineStr">
+      <c r="S621" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -15374,6 +15655,7 @@
       </c>
       <c r="F622" s="7" t="n"/>
       <c r="G622" s="8" t="n"/>
+      <c r="S622" s="9" t="n"/>
     </row>
     <row r="623">
       <c r="A623" s="5" t="n">
@@ -15391,6 +15673,7 @@
       </c>
       <c r="F623" s="7" t="n"/>
       <c r="G623" s="8" t="n"/>
+      <c r="S623" s="9" t="n"/>
     </row>
     <row r="624">
       <c r="A624" s="5" t="n">
@@ -15417,7 +15700,7 @@
         <f>IF(E624&gt;1,(1.732*D624*F624)/1000,(D624*F624)/1000)</f>
         <v/>
       </c>
-      <c r="S624" t="inlineStr">
+      <c r="S624" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -15437,7 +15720,7 @@
       </c>
       <c r="F625" s="7" t="n"/>
       <c r="G625" s="8" t="n"/>
-      <c r="S625" t="inlineStr">
+      <c r="S625" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -15468,7 +15751,7 @@
         <f>IF(E626&gt;1,(1.732*D626*F626)/1000,(D626*F626)/1000)</f>
         <v/>
       </c>
-      <c r="S626" t="inlineStr">
+      <c r="S626" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -15490,6 +15773,7 @@
       </c>
       <c r="F627" s="7" t="n"/>
       <c r="G627" s="8" t="n"/>
+      <c r="S627" s="9" t="n"/>
     </row>
     <row r="628">
       <c r="A628" s="5" t="inlineStr">
@@ -15509,43 +15793,45 @@
       </c>
       <c r="F628" s="7" t="n"/>
       <c r="G628" s="8" t="n"/>
+      <c r="S628" s="9" t="n"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr"/>
     </row>
     <row r="630">
-      <c r="A630" s="9" t="inlineStr">
+      <c r="A630" s="10" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G630" s="10">
+      <c r="G630" s="11">
         <f>SUM(G7:G629)</f>
         <v/>
       </c>
-      <c r="J630" s="10">
+      <c r="J630" s="11">
         <f>SUM(J7:J629)</f>
         <v/>
       </c>
-      <c r="M630" s="10">
+      <c r="M630" s="11">
         <f>SUM(M7:M629)</f>
         <v/>
       </c>
-      <c r="N630" s="10">
+      <c r="N630" s="11">
         <f>SUM(N7:N629)</f>
         <v/>
       </c>
-      <c r="O630" s="10">
+      <c r="O630" s="11">
         <f>SUM(O7:O629)</f>
         <v/>
       </c>
-      <c r="P630" s="10">
+      <c r="P630" s="11">
         <f>SUM(P7:P629)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>